--- a/dataproc/Excel/TrafficCountConvert.xlsx
+++ b/dataproc/Excel/TrafficCountConvert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="8160" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="8160" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="RevHist" sheetId="6" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="395">
   <si>
     <t>NODE</t>
   </si>
@@ -1246,6 +1246,12 @@
   <si>
     <t>Select the year by entering it in TrafficCount!AE1; this populates the data in sheet LocIDs; copy range "output" to corresponding columns in separate file yyyy_LocID.csv where yyyy is year (verify LocIDs line up). Put new data for 2018 into TrafficCount column D.</t>
   </si>
+  <si>
+    <t>Replace NA() with ""; LocID 125 replace TrafficNS, EW blank with 0</t>
+  </si>
+  <si>
+    <t>Clear 2018 column</t>
+  </si>
 </sst>
 </file>
 
@@ -1484,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1683,6 +1689,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1986,9 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2024,15 +2032,27 @@
       <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="64">
+        <v>42985</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>343</v>
+      </c>
       <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="64">
+        <v>42996</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>343</v>
+      </c>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,15 +2297,15 @@
         <v>41</v>
       </c>
       <c r="D2" s="53">
-        <f>IF(ISNUMBER(K2),K2,NA())</f>
+        <f>IF(ISNUMBER(K2),K2,"")</f>
         <v>11352</v>
       </c>
       <c r="E2" s="53">
-        <f>IF(ISNUMBER(L2),L2,NA())</f>
+        <f>IF(ISNUMBER(L2),L2,"")</f>
         <v>10368</v>
       </c>
       <c r="F2" s="53">
-        <f>IF(ISNUMBER(M2),M2,NA())</f>
+        <f>IF(ISNUMBER(M2),M2,"")</f>
         <v>11352</v>
       </c>
       <c r="G2" s="54">
@@ -2403,15 +2423,15 @@
         <v>41</v>
       </c>
       <c r="D3" s="53">
-        <f t="shared" ref="D3:D66" si="20">IF(ISNUMBER(K3),K3,NA())</f>
+        <f t="shared" ref="D3:D66" si="20">IF(ISNUMBER(K3),K3,"")</f>
         <v>24622</v>
       </c>
       <c r="E3" s="53">
-        <f t="shared" ref="E3:E66" si="21">IF(ISNUMBER(L3),L3,NA())</f>
+        <f t="shared" ref="E3:E66" si="21">IF(ISNUMBER(L3),L3,"")</f>
         <v>15577</v>
       </c>
       <c r="F3" s="53">
-        <f t="shared" ref="F3:F66" si="22">IF(ISNUMBER(M3),M3,NA())</f>
+        <f t="shared" ref="F3:F66" si="22">IF(ISNUMBER(M3),M3,"")</f>
         <v>24622</v>
       </c>
       <c r="G3" s="56">
@@ -3058,9 +3078,9 @@
         <f t="shared" si="20"/>
         <v>8068</v>
       </c>
-      <c r="E8" s="53" t="e">
+      <c r="E8" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="22"/>
@@ -3188,9 +3208,9 @@
         <f t="shared" si="20"/>
         <v>4004</v>
       </c>
-      <c r="E9" s="53" t="e">
+      <c r="E9" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F9" s="53">
         <f t="shared" si="22"/>
@@ -3582,9 +3602,9 @@
         <f t="shared" si="21"/>
         <v>27094</v>
       </c>
-      <c r="F12" s="53" t="e">
+      <c r="F12" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G12" s="51">
         <v>49</v>
@@ -3712,9 +3732,9 @@
         <f t="shared" si="21"/>
         <v>1860</v>
       </c>
-      <c r="F13" s="53" t="e">
+      <c r="F13" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G13" s="56">
         <f>IF(LEN(AA13)&gt;0,IF(NOT(ISERROR(MATCH(AA13,TC_concat,0))),MOD(MATCH(AA13,TC_concat,0)-1,1+MAX(TCID!$A:$A)),""),"")</f>
@@ -4228,9 +4248,9 @@
         <f t="shared" si="20"/>
         <v>34703</v>
       </c>
-      <c r="E17" s="53" t="e">
+      <c r="E17" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F17" s="53">
         <f t="shared" si="22"/>
@@ -4620,9 +4640,9 @@
         <f t="shared" si="20"/>
         <v>31195</v>
       </c>
-      <c r="E20" s="53" t="e">
+      <c r="E20" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F20" s="53">
         <f t="shared" si="22"/>
@@ -4750,9 +4770,9 @@
         <f t="shared" si="20"/>
         <v>31195</v>
       </c>
-      <c r="E21" s="53" t="e">
+      <c r="E21" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F21" s="53">
         <f t="shared" si="22"/>
@@ -5143,9 +5163,9 @@
         <f t="shared" si="21"/>
         <v>37093</v>
       </c>
-      <c r="F24" s="53" t="e">
+      <c r="F24" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G24" s="51">
         <v>115</v>
@@ -5273,9 +5293,9 @@
         <f t="shared" si="21"/>
         <v>29155</v>
       </c>
-      <c r="F25" s="53" t="e">
+      <c r="F25" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G25" s="51">
         <v>118</v>
@@ -5399,13 +5419,13 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E26" s="53" t="e">
+      <c r="E26" s="53">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G26" s="56" t="str">
         <f>IF(LEN(AA26)&gt;0,IF(NOT(ISERROR(MATCH(AA26,TC_concat,0))),MOD(MATCH(AA26,TC_concat,0)-1,1+MAX(TCID!$A:$A)),""),"")</f>
@@ -5426,13 +5446,11 @@
       <c r="K26" s="58">
         <v>0</v>
       </c>
-      <c r="L26" s="48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M26" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L26" s="58">
+        <v>0</v>
+      </c>
+      <c r="M26" s="58">
+        <v>0</v>
       </c>
       <c r="N26" s="48" t="str">
         <f t="shared" si="3"/>
@@ -5529,9 +5547,9 @@
         <f t="shared" si="20"/>
         <v>42459</v>
       </c>
-      <c r="E27" s="53" t="e">
+      <c r="E27" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F27" s="53">
         <f t="shared" si="22"/>
@@ -5794,9 +5812,9 @@
         <f t="shared" si="21"/>
         <v>30881</v>
       </c>
-      <c r="F29" s="53" t="e">
+      <c r="F29" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G29" s="51">
         <v>71</v>
@@ -6046,17 +6064,17 @@
       <c r="C31" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="53" t="e">
+      <c r="D31" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="53" t="e">
+        <v/>
+      </c>
+      <c r="E31" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="53" t="e">
+        <v/>
+      </c>
+      <c r="F31" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G31" s="56" t="str">
         <f>IF(LEN(AA31)&gt;0,IF(NOT(ISERROR(MATCH(AA31,TC_concat,0))),MOD(MATCH(AA31,TC_concat,0)-1,1+MAX(TCID!$A:$A)),""),"")</f>
@@ -6309,9 +6327,9 @@
         <f t="shared" si="20"/>
         <v>19385</v>
       </c>
-      <c r="E33" s="53" t="e">
+      <c r="E33" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F33" s="53">
         <f t="shared" si="22"/>
@@ -6569,9 +6587,9 @@
         <f t="shared" si="20"/>
         <v>21727</v>
       </c>
-      <c r="E35" s="53" t="e">
+      <c r="E35" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F35" s="53">
         <f t="shared" si="22"/>
@@ -6703,9 +6721,9 @@
         <f t="shared" si="21"/>
         <v>40479</v>
       </c>
-      <c r="F36" s="53" t="e">
+      <c r="F36" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G36" s="51">
         <v>46</v>
@@ -6833,9 +6851,9 @@
         <f t="shared" si="21"/>
         <v>45442</v>
       </c>
-      <c r="F37" s="53" t="e">
+      <c r="F37" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G37" s="51">
         <v>61</v>
@@ -8527,9 +8545,9 @@
         <f t="shared" si="20"/>
         <v>24378</v>
       </c>
-      <c r="E50" s="53" t="e">
+      <c r="E50" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F50" s="53">
         <f t="shared" si="22"/>
@@ -8657,9 +8675,9 @@
         <f t="shared" si="20"/>
         <v>20605</v>
       </c>
-      <c r="E51" s="53" t="e">
+      <c r="E51" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F51" s="53">
         <f t="shared" si="22"/>
@@ -8787,9 +8805,9 @@
         <f t="shared" si="20"/>
         <v>30051</v>
       </c>
-      <c r="E52" s="53" t="e">
+      <c r="E52" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F52" s="53">
         <f t="shared" si="22"/>
@@ -9178,9 +9196,9 @@
         <f t="shared" si="21"/>
         <v>40479</v>
       </c>
-      <c r="F55" s="53" t="e">
+      <c r="F55" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G55" s="51">
         <v>46</v>
@@ -10347,9 +10365,9 @@
         <f t="shared" si="20"/>
         <v>31195</v>
       </c>
-      <c r="E64" s="53" t="e">
+      <c r="E64" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F64" s="53">
         <f t="shared" si="22"/>
@@ -10735,17 +10753,17 @@
       <c r="C67" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="53" t="e">
-        <f t="shared" ref="D67:D79" si="56">IF(ISNUMBER(K67),K67,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="53" t="e">
-        <f t="shared" ref="E67:E79" si="57">IF(ISNUMBER(L67),L67,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="53" t="e">
-        <f t="shared" ref="F67:F79" si="58">IF(ISNUMBER(M67),M67,NA())</f>
-        <v>#N/A</v>
+      <c r="D67" s="53" t="str">
+        <f t="shared" ref="D67:D79" si="56">IF(ISNUMBER(K67),K67,"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="53" t="str">
+        <f t="shared" ref="E67:E79" si="57">IF(ISNUMBER(L67),L67,"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="53" t="str">
+        <f t="shared" ref="F67:F79" si="58">IF(ISNUMBER(M67),M67,"")</f>
+        <v/>
       </c>
       <c r="G67" s="56" t="str">
         <f>IF(LEN(AA67)&gt;0,IF(NOT(ISERROR(MATCH(AA67,TC_concat,0))),MOD(MATCH(AA67,TC_concat,0)-1,1+MAX(TCID!$A:$A)),""),"")</f>
@@ -10871,9 +10889,9 @@
         <f t="shared" si="57"/>
         <v>44869</v>
       </c>
-      <c r="F68" s="53" t="e">
+      <c r="F68" s="53" t="str">
         <f t="shared" si="58"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G68" s="57">
         <v>155</v>
@@ -11263,9 +11281,9 @@
         <f t="shared" si="57"/>
         <v>22291</v>
       </c>
-      <c r="F71" s="53" t="e">
+      <c r="F71" s="53" t="str">
         <f t="shared" si="58"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G71" s="57">
         <v>145</v>
@@ -11385,17 +11403,17 @@
       <c r="C72" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="53" t="e">
+      <c r="D72" s="53" t="str">
         <f t="shared" si="56"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="53" t="e">
+        <v/>
+      </c>
+      <c r="E72" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="53" t="e">
+        <v/>
+      </c>
+      <c r="F72" s="53" t="str">
         <f t="shared" si="58"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G72" s="56" t="str">
         <f>IF(LEN(AA72)&gt;0,IF(NOT(ISERROR(MATCH(AA72,TC_concat,0))),MOD(MATCH(AA72,TC_concat,0)-1,1+MAX(TCID!$A:$A)),""),"")</f>
@@ -12177,9 +12195,9 @@
         <f t="shared" si="57"/>
         <v>34964</v>
       </c>
-      <c r="F78" s="53" t="e">
+      <c r="F78" s="53" t="str">
         <f t="shared" si="58"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G78" s="57">
         <v>96</v>
@@ -29395,11 +29413,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX200"/>
+  <dimension ref="A1:AY200"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29411,9 +29427,10 @@
     <col min="31" max="31" width="5.6640625" customWidth="1"/>
     <col min="32" max="40" width="6.5546875" customWidth="1"/>
     <col min="41" max="41" width="2.88671875" customWidth="1"/>
+    <col min="51" max="51" width="10.5546875" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29564,8 +29581,11 @@
       <c r="AW1" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AY1" s="72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -29684,11 +29704,15 @@
         <v>0</v>
       </c>
       <c r="AX2" t="b">
-        <f>AW2=A2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX2:AX33" si="1">AW2=A2</f>
+        <v>1</v>
+      </c>
+      <c r="AY2" s="73">
+        <f>IF(LEN(AP2)&gt;0,VALUE(LEFT(AP2,10)),"")</f>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -29748,7 +29772,7 @@
       </c>
       <c r="AD3" s="6"/>
       <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF66" si="1">INDEX($AH$2:$AN$200,ROW()-1,MATCH($AF$1,$AH$1:$AN$1,0))</f>
+        <f t="shared" ref="AF3:AF66" si="2">INDEX($AH$2:$AN$200,ROW()-1,MATCH($AF$1,$AH$1:$AN$1,0))</f>
         <v>7929</v>
       </c>
       <c r="AG3" s="71">
@@ -29809,11 +29833,15 @@
         <v>1</v>
       </c>
       <c r="AX3" t="b">
-        <f>AW3=A3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY3" s="73">
+        <f t="shared" ref="AY3:AY66" si="3">IF(LEN(AP3)&gt;0,VALUE(LEFT(AP3,10)),"")</f>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -29871,7 +29899,7 @@
       </c>
       <c r="AD4" s="6"/>
       <c r="AF4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36814</v>
       </c>
       <c r="AG4" s="71">
@@ -29932,11 +29960,15 @@
         <v>2</v>
       </c>
       <c r="AX4" t="b">
-        <f>AW4=A4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY4" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -29990,7 +30022,7 @@
       </c>
       <c r="AD5" s="6"/>
       <c r="AF5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14760</v>
       </c>
       <c r="AG5" s="71">
@@ -30051,11 +30083,15 @@
         <v>3</v>
       </c>
       <c r="AX5" t="b">
-        <f>AW5=A5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY5" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -30115,7 +30151,7 @@
         <v>12093</v>
       </c>
       <c r="AF6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5704</v>
       </c>
       <c r="AG6" s="71">
@@ -30176,11 +30212,15 @@
         <v>4</v>
       </c>
       <c r="AX6" t="b">
-        <f>AW6=A6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -30238,7 +30278,7 @@
       </c>
       <c r="AD7" s="6"/>
       <c r="AF7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6636</v>
       </c>
       <c r="AG7" s="71">
@@ -30299,11 +30339,15 @@
         <v>5</v>
       </c>
       <c r="AX7" t="b">
-        <f>AW7=A7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY7" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -30359,7 +30403,7 @@
       </c>
       <c r="AD8" s="6"/>
       <c r="AF8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42396</v>
       </c>
       <c r="AG8" s="71">
@@ -30420,11 +30464,15 @@
         <v>6</v>
       </c>
       <c r="AX8" t="b">
-        <f>AW8=A8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY8" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -30484,7 +30532,7 @@
       </c>
       <c r="AD9" s="6"/>
       <c r="AF9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26595</v>
       </c>
       <c r="AG9" s="71">
@@ -30545,11 +30593,15 @@
         <v>7</v>
       </c>
       <c r="AX9" t="b">
-        <f>AW9=A9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY9" s="73">
+        <f t="shared" si="3"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -30609,7 +30661,7 @@
       </c>
       <c r="AD10" s="6"/>
       <c r="AF10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10082</v>
       </c>
       <c r="AG10" s="71">
@@ -30670,11 +30722,15 @@
         <v>8</v>
       </c>
       <c r="AX10" t="b">
-        <f>AW10=A10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY10" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -30732,7 +30788,7 @@
       </c>
       <c r="AD11" s="6"/>
       <c r="AF11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14613</v>
       </c>
       <c r="AG11" s="71">
@@ -30793,11 +30849,15 @@
         <v>9</v>
       </c>
       <c r="AX11" t="b">
-        <f>AW11=A11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY11" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -30859,7 +30919,7 @@
       </c>
       <c r="AD12" s="6"/>
       <c r="AF12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16270</v>
       </c>
       <c r="AG12" s="71">
@@ -30920,11 +30980,15 @@
         <v>10</v>
       </c>
       <c r="AX12" t="b">
-        <f>AW12=A12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY12" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -30986,7 +31050,7 @@
       </c>
       <c r="AD13" s="6"/>
       <c r="AF13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10368</v>
       </c>
       <c r="AG13" s="71">
@@ -31047,11 +31111,15 @@
         <v>11</v>
       </c>
       <c r="AX13" t="b">
-        <f>AW13=A13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY13" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -31113,7 +31181,7 @@
       </c>
       <c r="AD14" s="6"/>
       <c r="AF14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11352</v>
       </c>
       <c r="AG14" s="71">
@@ -31174,11 +31242,15 @@
         <v>12</v>
       </c>
       <c r="AX14" t="b">
-        <f>AW14=A14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY14" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -31240,7 +31312,7 @@
       </c>
       <c r="AD15" s="6"/>
       <c r="AF15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14472</v>
       </c>
       <c r="AG15" s="71">
@@ -31301,11 +31373,15 @@
         <v>13</v>
       </c>
       <c r="AX15" t="b">
-        <f>AW15=A15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY15" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -31363,7 +31439,7 @@
       </c>
       <c r="AD16" s="6"/>
       <c r="AF16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13270</v>
       </c>
       <c r="AG16" s="71">
@@ -31424,11 +31500,15 @@
         <v>14</v>
       </c>
       <c r="AX16" t="b">
-        <f>AW16=A16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY16" s="73">
+        <f t="shared" si="3"/>
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -31488,7 +31568,7 @@
       </c>
       <c r="AD17" s="6"/>
       <c r="AF17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25458</v>
       </c>
       <c r="AG17" s="71">
@@ -31549,11 +31629,15 @@
         <v>15</v>
       </c>
       <c r="AX17" t="b">
-        <f>AW17=A17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY17" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -31611,7 +31695,7 @@
       </c>
       <c r="AD18" s="6"/>
       <c r="AF18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12444</v>
       </c>
       <c r="AG18" s="71">
@@ -31672,11 +31756,15 @@
         <v>16</v>
       </c>
       <c r="AX18" t="b">
-        <f>AW18=A18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY18" s="73">
+        <f t="shared" si="3"/>
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -31742,7 +31830,7 @@
       </c>
       <c r="AD19" s="6"/>
       <c r="AF19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15577</v>
       </c>
       <c r="AG19" s="71">
@@ -31803,11 +31891,15 @@
         <v>17</v>
       </c>
       <c r="AX19" t="b">
-        <f>AW19=A19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY19" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -31867,7 +31959,7 @@
       </c>
       <c r="AD20" s="6"/>
       <c r="AF20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51749</v>
       </c>
       <c r="AG20" s="71">
@@ -31928,11 +32020,15 @@
         <v>18</v>
       </c>
       <c r="AX20" t="b">
-        <f>AW20=A20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY20" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -31986,7 +32082,7 @@
       </c>
       <c r="AD21" s="6"/>
       <c r="AF21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30751</v>
       </c>
       <c r="AG21" s="71">
@@ -32047,11 +32143,15 @@
         <v>19</v>
       </c>
       <c r="AX21" t="b">
-        <f>AW21=A21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY21" s="73">
+        <f t="shared" si="3"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -32107,7 +32207,7 @@
       </c>
       <c r="AD22" s="6"/>
       <c r="AF22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10737</v>
       </c>
       <c r="AG22" s="71">
@@ -32168,11 +32268,15 @@
         <v>20</v>
       </c>
       <c r="AX22" t="b">
-        <f>AW22=A22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY22" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -32234,7 +32338,7 @@
       </c>
       <c r="AD23" s="6"/>
       <c r="AF23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34169</v>
       </c>
       <c r="AG23" s="71">
@@ -32295,11 +32399,15 @@
         <v>21</v>
       </c>
       <c r="AX23" t="b">
-        <f>AW23=A23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY23" s="73">
+        <f t="shared" si="3"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -32355,7 +32463,7 @@
       </c>
       <c r="AD24" s="6"/>
       <c r="AF24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4504</v>
       </c>
       <c r="AG24" s="71">
@@ -32416,11 +32524,15 @@
         <v>22</v>
       </c>
       <c r="AX24" t="b">
-        <f>AW24=A24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY24" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -32478,7 +32590,7 @@
       </c>
       <c r="AD25" s="6"/>
       <c r="AF25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4004</v>
       </c>
       <c r="AG25" s="71">
@@ -32539,11 +32651,15 @@
         <v>23</v>
       </c>
       <c r="AX25" t="b">
-        <f>AW25=A25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY25" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -32597,7 +32713,7 @@
       </c>
       <c r="AD26" s="6"/>
       <c r="AF26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8068</v>
       </c>
       <c r="AG26" s="71">
@@ -32658,11 +32774,15 @@
         <v>24</v>
       </c>
       <c r="AX26" t="b">
-        <f>AW26=A26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY26" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -32718,7 +32838,7 @@
       </c>
       <c r="AD27" s="6"/>
       <c r="AF27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24622</v>
       </c>
       <c r="AG27" s="71">
@@ -32779,11 +32899,15 @@
         <v>25</v>
       </c>
       <c r="AX27" t="b">
-        <f>AW27=A27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY27" s="73">
+        <f t="shared" si="3"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -32841,7 +32965,7 @@
       </c>
       <c r="AD28" s="6"/>
       <c r="AF28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38744</v>
       </c>
       <c r="AG28" s="71">
@@ -32902,11 +33026,15 @@
         <v>26</v>
       </c>
       <c r="AX28" t="b">
-        <f>AW28=A28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY28" s="73">
+        <f t="shared" si="3"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -32962,7 +33090,7 @@
       </c>
       <c r="AD29" s="6"/>
       <c r="AF29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16735</v>
       </c>
       <c r="AG29" s="71">
@@ -33023,11 +33151,15 @@
         <v>27</v>
       </c>
       <c r="AX29" t="b">
-        <f>AW29=A29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY29" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -33087,7 +33219,7 @@
       </c>
       <c r="AD30" s="6"/>
       <c r="AF30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33538</v>
       </c>
       <c r="AG30" s="71">
@@ -33148,11 +33280,15 @@
         <v>28</v>
       </c>
       <c r="AX30" t="b">
-        <f>AW30=A30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY30" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -33206,7 +33342,7 @@
       </c>
       <c r="AD31" s="6"/>
       <c r="AF31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11371</v>
       </c>
       <c r="AG31" s="71">
@@ -33267,11 +33403,15 @@
         <v>29</v>
       </c>
       <c r="AX31" t="b">
-        <f>AW31=A31</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY31" s="73">
+        <f t="shared" si="3"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -33329,7 +33469,7 @@
       </c>
       <c r="AD32" s="6"/>
       <c r="AF32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37413</v>
       </c>
       <c r="AG32" s="71">
@@ -33390,11 +33530,15 @@
         <v>30</v>
       </c>
       <c r="AX32" t="b">
-        <f>AW32=A32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY32" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -33452,7 +33596,7 @@
       </c>
       <c r="AD33" s="6"/>
       <c r="AF33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32685</v>
       </c>
       <c r="AG33" s="71">
@@ -33513,11 +33657,15 @@
         <v>31</v>
       </c>
       <c r="AX33" t="b">
-        <f>AW33=A33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY33" s="73">
+        <f t="shared" si="3"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -33575,7 +33723,7 @@
       </c>
       <c r="AD34" s="6"/>
       <c r="AF34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34703</v>
       </c>
       <c r="AG34" s="71">
@@ -33636,11 +33784,15 @@
         <v>32</v>
       </c>
       <c r="AX34" t="b">
-        <f>AW34=A34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX34:AX65" si="4">AW34=A34</f>
+        <v>1</v>
+      </c>
+      <c r="AY34" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -33696,7 +33848,7 @@
       </c>
       <c r="AD35" s="6"/>
       <c r="AF35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5561</v>
       </c>
       <c r="AG35" s="71">
@@ -33757,11 +33909,15 @@
         <v>33</v>
       </c>
       <c r="AX35" t="b">
-        <f>AW35=A35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY35" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -33821,7 +33977,7 @@
       </c>
       <c r="AD36" s="6"/>
       <c r="AF36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7686</v>
       </c>
       <c r="AG36" s="71">
@@ -33882,11 +34038,15 @@
         <v>34</v>
       </c>
       <c r="AX36" t="b">
-        <f>AW36=A36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY36" s="73">
+        <f t="shared" si="3"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -33944,7 +34104,7 @@
       </c>
       <c r="AD37" s="6"/>
       <c r="AF37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8715</v>
       </c>
       <c r="AG37" s="71">
@@ -34005,11 +34165,15 @@
         <v>35</v>
       </c>
       <c r="AX37" t="b">
-        <f>AW37=A37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY37" s="73">
+        <f t="shared" si="3"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -34069,7 +34233,7 @@
       </c>
       <c r="AD38" s="6"/>
       <c r="AF38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28175</v>
       </c>
       <c r="AG38" s="71">
@@ -34130,11 +34294,15 @@
         <v>36</v>
       </c>
       <c r="AX38" t="b">
-        <f>AW38=A38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY38" s="73">
+        <f t="shared" si="3"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -34196,7 +34364,7 @@
       </c>
       <c r="AD39" s="6"/>
       <c r="AF39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31195</v>
       </c>
       <c r="AG39" s="71">
@@ -34257,11 +34425,15 @@
         <v>37</v>
       </c>
       <c r="AX39" t="b">
-        <f>AW39=A39</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY39" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -34317,7 +34489,7 @@
       </c>
       <c r="AD40" s="6"/>
       <c r="AF40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30051</v>
       </c>
       <c r="AG40" s="71">
@@ -34378,11 +34550,15 @@
         <v>38</v>
       </c>
       <c r="AX40" t="b">
-        <f>AW40=A40</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY40" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -34438,7 +34614,7 @@
       </c>
       <c r="AD41" s="6"/>
       <c r="AF41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2363</v>
       </c>
       <c r="AG41" s="71">
@@ -34499,11 +34675,15 @@
         <v>39</v>
       </c>
       <c r="AX41" t="b">
-        <f>AW41=A41</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY41" s="73">
+        <f t="shared" si="3"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -34559,7 +34739,7 @@
       </c>
       <c r="AD42" s="6"/>
       <c r="AF42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31878</v>
       </c>
       <c r="AG42" s="71">
@@ -34620,11 +34800,15 @@
         <v>40</v>
       </c>
       <c r="AX42" t="b">
-        <f>AW42=A42</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY42" s="73">
+        <f t="shared" si="3"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -34682,7 +34866,7 @@
       </c>
       <c r="AD43" s="6"/>
       <c r="AF43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30327</v>
       </c>
       <c r="AG43" s="71">
@@ -34743,11 +34927,15 @@
         <v>41</v>
       </c>
       <c r="AX43" t="b">
-        <f>AW43=A43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY43" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -34799,7 +34987,7 @@
       </c>
       <c r="AD44" s="6"/>
       <c r="AF44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7014</v>
       </c>
       <c r="AG44" s="71">
@@ -34860,11 +35048,15 @@
         <v>42</v>
       </c>
       <c r="AX44" t="b">
-        <f>AW44=A44</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY44" s="73">
+        <f t="shared" si="3"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -34922,7 +35114,7 @@
       </c>
       <c r="AD45" s="6"/>
       <c r="AF45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17906</v>
       </c>
       <c r="AG45" s="71">
@@ -34983,11 +35175,15 @@
         <v>43</v>
       </c>
       <c r="AX45" t="b">
-        <f>AW45=A45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY45" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -35047,7 +35243,7 @@
       </c>
       <c r="AD46" s="6"/>
       <c r="AF46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19938</v>
       </c>
       <c r="AG46" s="71">
@@ -35108,11 +35304,15 @@
         <v>44</v>
       </c>
       <c r="AX46" t="b">
-        <f>AW46=A46</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY46" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -35168,7 +35368,7 @@
       </c>
       <c r="AD47" s="6"/>
       <c r="AF47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19385</v>
       </c>
       <c r="AG47" s="71">
@@ -35229,11 +35429,15 @@
         <v>45</v>
       </c>
       <c r="AX47" t="b">
-        <f>AW47=A47</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY47" s="73">
+        <f t="shared" si="3"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -35289,7 +35493,7 @@
       </c>
       <c r="AD48" s="6"/>
       <c r="AF48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40479</v>
       </c>
       <c r="AG48" s="71">
@@ -35350,11 +35554,15 @@
         <v>46</v>
       </c>
       <c r="AX48" t="b">
-        <f>AW48=A48</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY48" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -35410,7 +35618,7 @@
       </c>
       <c r="AD49" s="6"/>
       <c r="AF49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2065</v>
       </c>
       <c r="AG49" s="71">
@@ -35471,11 +35679,15 @@
         <v>47</v>
       </c>
       <c r="AX49" t="b">
-        <f>AW49=A49</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY49" s="73">
+        <f t="shared" si="3"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -35535,7 +35747,7 @@
       </c>
       <c r="AD50" s="6"/>
       <c r="AF50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21727</v>
       </c>
       <c r="AG50" s="71">
@@ -35596,11 +35808,15 @@
         <v>48</v>
       </c>
       <c r="AX50" t="b">
-        <f>AW50=A50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY50" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -35662,7 +35878,7 @@
       </c>
       <c r="AD51" s="6"/>
       <c r="AF51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27094</v>
       </c>
       <c r="AG51" s="71">
@@ -35723,11 +35939,15 @@
         <v>49</v>
       </c>
       <c r="AX51" t="b">
-        <f>AW51=A51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY51" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -35785,7 +36005,7 @@
       </c>
       <c r="AD52" s="6"/>
       <c r="AF52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9884</v>
       </c>
       <c r="AG52" s="71">
@@ -35846,11 +36066,15 @@
         <v>50</v>
       </c>
       <c r="AX52" t="b">
-        <f>AW52=A52</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY52" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -35904,7 +36128,7 @@
       </c>
       <c r="AD53" s="6"/>
       <c r="AF53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2227</v>
       </c>
       <c r="AG53" s="71">
@@ -35965,11 +36189,15 @@
         <v>51</v>
       </c>
       <c r="AX53" t="b">
-        <f>AW53=A53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY53" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -36029,7 +36257,7 @@
       </c>
       <c r="AD54" s="6"/>
       <c r="AF54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30254</v>
       </c>
       <c r="AG54" s="71">
@@ -36090,11 +36318,15 @@
         <v>52</v>
       </c>
       <c r="AX54" t="b">
-        <f>AW54=A54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY54" s="73">
+        <f t="shared" si="3"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -36154,7 +36386,7 @@
       </c>
       <c r="AD55" s="6"/>
       <c r="AF55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11739</v>
       </c>
       <c r="AG55" s="71">
@@ -36215,11 +36447,15 @@
         <v>53</v>
       </c>
       <c r="AX55" t="b">
-        <f>AW55=A55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY55" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -36277,7 +36513,7 @@
       </c>
       <c r="AD56" s="6"/>
       <c r="AF56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2564</v>
       </c>
       <c r="AG56" s="71">
@@ -36338,11 +36574,15 @@
         <v>54</v>
       </c>
       <c r="AX56" t="b">
-        <f>AW56=A56</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY56" s="73">
+        <f t="shared" si="3"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -36400,7 +36640,7 @@
       </c>
       <c r="AD57" s="6"/>
       <c r="AF57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40732</v>
       </c>
       <c r="AG57" s="71">
@@ -36461,11 +36701,15 @@
         <v>55</v>
       </c>
       <c r="AX57" t="b">
-        <f>AW57=A57</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY57" s="73">
+        <f t="shared" si="3"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -36527,7 +36771,7 @@
       </c>
       <c r="AD58" s="6"/>
       <c r="AF58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35399</v>
       </c>
       <c r="AG58" s="71">
@@ -36588,11 +36832,15 @@
         <v>56</v>
       </c>
       <c r="AX58" t="b">
-        <f>AW58=A58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY58" s="73">
+        <f t="shared" si="3"/>
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -36650,7 +36898,7 @@
       </c>
       <c r="AD59" s="6"/>
       <c r="AF59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3412</v>
       </c>
       <c r="AG59" s="71">
@@ -36711,11 +36959,15 @@
         <v>57</v>
       </c>
       <c r="AX59" t="b">
-        <f>AW59=A59</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY59" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -36777,7 +37029,7 @@
       </c>
       <c r="AD60" s="6"/>
       <c r="AF60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4911</v>
       </c>
       <c r="AG60" s="71">
@@ -36838,11 +37090,15 @@
         <v>58</v>
       </c>
       <c r="AX60" t="b">
-        <f>AW60=A60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY60" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -36904,7 +37160,7 @@
       </c>
       <c r="AD61" s="6"/>
       <c r="AF61" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25881</v>
       </c>
       <c r="AG61" s="71">
@@ -36965,11 +37221,15 @@
         <v>59</v>
       </c>
       <c r="AX61" t="b">
-        <f>AW61=A61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY61" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -37027,7 +37287,7 @@
       </c>
       <c r="AD62" s="6"/>
       <c r="AF62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5047</v>
       </c>
       <c r="AG62" s="71">
@@ -37088,11 +37348,15 @@
         <v>60</v>
       </c>
       <c r="AX62" t="b">
-        <f>AW62=A62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY62" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -37152,7 +37416,7 @@
       </c>
       <c r="AD63" s="6"/>
       <c r="AF63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45442</v>
       </c>
       <c r="AG63" s="71">
@@ -37213,11 +37477,15 @@
         <v>61</v>
       </c>
       <c r="AX63" t="b">
-        <f>AW63=A63</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY63" s="73">
+        <f t="shared" si="3"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -37273,7 +37541,7 @@
       </c>
       <c r="AD64" s="6"/>
       <c r="AF64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25755</v>
       </c>
       <c r="AG64" s="71">
@@ -37334,11 +37602,15 @@
         <v>62</v>
       </c>
       <c r="AX64" t="b">
-        <f>AW64=A64</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY64" s="73">
+        <f t="shared" si="3"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -37396,7 +37668,7 @@
       </c>
       <c r="AD65" s="6"/>
       <c r="AF65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32423</v>
       </c>
       <c r="AG65" s="71">
@@ -37457,11 +37729,15 @@
         <v>63</v>
       </c>
       <c r="AX65" t="b">
-        <f>AW65=A65</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AY65" s="73">
+        <f t="shared" si="3"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -37519,7 +37795,7 @@
         <v>50570</v>
       </c>
       <c r="AF66" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30288</v>
       </c>
       <c r="AG66" s="71">
@@ -37580,11 +37856,15 @@
         <v>64</v>
       </c>
       <c r="AX66" t="b">
-        <f>AW66=A66</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX66:AX97" si="5">AW66=A66</f>
+        <v>1</v>
+      </c>
+      <c r="AY66" s="73">
+        <f t="shared" si="3"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -37642,7 +37922,7 @@
       </c>
       <c r="AD67" s="6"/>
       <c r="AF67" s="7">
-        <f t="shared" ref="AF67:AF95" si="2">INDEX($AH$2:$AN$200,ROW()-1,MATCH($AF$1,$AH$1:$AN$1,0))</f>
+        <f t="shared" ref="AF67:AF95" si="6">INDEX($AH$2:$AN$200,ROW()-1,MATCH($AF$1,$AH$1:$AN$1,0))</f>
         <v>27069</v>
       </c>
       <c r="AG67" s="71">
@@ -37703,11 +37983,15 @@
         <v>65</v>
       </c>
       <c r="AX67" t="b">
-        <f>AW67=A67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY67" s="73">
+        <f t="shared" ref="AY67:AY130" si="7">IF(LEN(AP67)&gt;0,VALUE(LEFT(AP67,10)),"")</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -37759,7 +38043,7 @@
       </c>
       <c r="AD68" s="6"/>
       <c r="AF68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11879</v>
       </c>
       <c r="AG68" s="71">
@@ -37820,11 +38104,15 @@
         <v>66</v>
       </c>
       <c r="AX68" t="b">
-        <f>AW68=A68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY68" s="73">
+        <f t="shared" si="7"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -37878,7 +38166,7 @@
       </c>
       <c r="AD69" s="6"/>
       <c r="AF69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41337</v>
       </c>
       <c r="AG69" s="71">
@@ -37939,11 +38227,15 @@
         <v>67</v>
       </c>
       <c r="AX69" t="b">
-        <f>AW69=A69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY69" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -37999,7 +38291,7 @@
       </c>
       <c r="AD70" s="6"/>
       <c r="AF70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6793</v>
       </c>
       <c r="AG70" s="71">
@@ -38060,11 +38352,15 @@
         <v>68</v>
       </c>
       <c r="AX70" t="b">
-        <f>AW70=A70</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY70" s="73">
+        <f t="shared" si="7"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -38120,7 +38416,7 @@
       </c>
       <c r="AD71" s="6"/>
       <c r="AF71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28244</v>
       </c>
       <c r="AG71" s="71">
@@ -38181,11 +38477,15 @@
         <v>69</v>
       </c>
       <c r="AX71" t="b">
-        <f>AW71=A71</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY71" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -38241,7 +38541,7 @@
       </c>
       <c r="AD72" s="6"/>
       <c r="AF72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24744</v>
       </c>
       <c r="AG72" s="71">
@@ -38302,11 +38602,15 @@
         <v>70</v>
       </c>
       <c r="AX72" t="b">
-        <f>AW72=A72</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY72" s="73">
+        <f t="shared" si="7"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -38366,7 +38670,7 @@
       </c>
       <c r="AD73" s="6"/>
       <c r="AF73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30881</v>
       </c>
       <c r="AG73" s="71">
@@ -38427,11 +38731,15 @@
         <v>71</v>
       </c>
       <c r="AX73" t="b">
-        <f>AW73=A73</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY73" s="73">
+        <f t="shared" si="7"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -38491,7 +38799,7 @@
       </c>
       <c r="AD74" s="6"/>
       <c r="AF74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3667</v>
       </c>
       <c r="AG74" s="71">
@@ -38552,11 +38860,15 @@
         <v>72</v>
       </c>
       <c r="AX74" t="b">
-        <f>AW74=A74</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY74" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -38614,7 +38926,7 @@
       </c>
       <c r="AD75" s="6"/>
       <c r="AF75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28796</v>
       </c>
       <c r="AG75" s="71">
@@ -38675,11 +38987,15 @@
         <v>73</v>
       </c>
       <c r="AX75" t="b">
-        <f>AW75=A75</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY75" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -38737,7 +39053,7 @@
       </c>
       <c r="AD76" s="6"/>
       <c r="AF76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>40703</v>
       </c>
       <c r="AG76" s="71">
@@ -38798,11 +39114,15 @@
         <v>74</v>
       </c>
       <c r="AX76" t="b">
-        <f>AW76=A76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY76" s="73">
+        <f t="shared" si="7"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -38860,7 +39180,7 @@
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AF77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2174</v>
       </c>
       <c r="AG77" s="71">
@@ -38921,11 +39241,15 @@
         <v>75</v>
       </c>
       <c r="AX77" t="b">
-        <f>AW77=A77</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY77" s="73">
+        <f t="shared" si="7"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -38985,7 +39309,7 @@
       </c>
       <c r="AD78" s="6"/>
       <c r="AF78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2860</v>
       </c>
       <c r="AG78" s="71">
@@ -39046,11 +39370,15 @@
         <v>76</v>
       </c>
       <c r="AX78" t="b">
-        <f>AW78=A78</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY78" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -39114,7 +39442,7 @@
       </c>
       <c r="AD79" s="6"/>
       <c r="AF79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31988</v>
       </c>
       <c r="AG79" s="71">
@@ -39175,11 +39503,15 @@
         <v>77</v>
       </c>
       <c r="AX79" t="b">
-        <f>AW79=A79</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY79" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -39239,7 +39571,7 @@
       </c>
       <c r="AD80" s="6"/>
       <c r="AF80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6703</v>
       </c>
       <c r="AG80" s="71">
@@ -39300,11 +39632,15 @@
         <v>78</v>
       </c>
       <c r="AX80" t="b">
-        <f>AW80=A80</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY80" s="73">
+        <f t="shared" si="7"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -39364,7 +39700,7 @@
       </c>
       <c r="AD81" s="6"/>
       <c r="AF81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13042</v>
       </c>
       <c r="AG81" s="71">
@@ -39425,11 +39761,15 @@
         <v>79</v>
       </c>
       <c r="AX81" t="b">
-        <f>AW81=A81</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY81" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -39487,7 +39827,7 @@
       </c>
       <c r="AD82" s="6"/>
       <c r="AF82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3480</v>
       </c>
       <c r="AG82" s="71">
@@ -39548,11 +39888,15 @@
         <v>80</v>
       </c>
       <c r="AX82" t="b">
-        <f>AW82=A82</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY82" s="73">
+        <f t="shared" si="7"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -39614,7 +39958,7 @@
       </c>
       <c r="AD83" s="6"/>
       <c r="AF83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33085</v>
       </c>
       <c r="AG83" s="71">
@@ -39675,11 +40019,15 @@
         <v>81</v>
       </c>
       <c r="AX83" t="b">
-        <f>AW83=A83</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY83" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -39741,7 +40089,7 @@
       </c>
       <c r="AD84" s="6"/>
       <c r="AF84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34825</v>
       </c>
       <c r="AG84" s="71">
@@ -39802,11 +40150,15 @@
         <v>82</v>
       </c>
       <c r="AX84" t="b">
-        <f>AW84=A84</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY84" s="73">
+        <f t="shared" si="7"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -39868,7 +40220,7 @@
       </c>
       <c r="AD85" s="6"/>
       <c r="AF85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>36895</v>
       </c>
       <c r="AG85" s="71">
@@ -39929,11 +40281,15 @@
         <v>83</v>
       </c>
       <c r="AX85" t="b">
-        <f>AW85=A85</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY85" s="73">
+        <f t="shared" si="7"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -39989,7 +40345,7 @@
       </c>
       <c r="AD86" s="6"/>
       <c r="AF86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31853</v>
       </c>
       <c r="AG86" s="71">
@@ -40050,11 +40406,15 @@
         <v>84</v>
       </c>
       <c r="AX86" t="b">
-        <f>AW86=A86</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY86" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -40114,7 +40474,7 @@
       </c>
       <c r="AD87" s="6"/>
       <c r="AF87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31641</v>
       </c>
       <c r="AG87" s="71">
@@ -40175,11 +40535,15 @@
         <v>85</v>
       </c>
       <c r="AX87" t="b">
-        <f>AW87=A87</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY87" s="73">
+        <f t="shared" si="7"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -40233,7 +40597,7 @@
       </c>
       <c r="AD88" s="6"/>
       <c r="AF88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33369</v>
       </c>
       <c r="AG88" s="71">
@@ -40294,11 +40658,15 @@
         <v>86</v>
       </c>
       <c r="AX88" t="b">
-        <f>AW88=A88</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY88" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -40360,7 +40728,7 @@
       </c>
       <c r="AD89" s="6"/>
       <c r="AF89" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26288</v>
       </c>
       <c r="AG89" s="71">
@@ -40421,11 +40789,15 @@
         <v>87</v>
       </c>
       <c r="AX89" t="b">
-        <f>AW89=A89</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY89" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -40483,7 +40855,7 @@
       </c>
       <c r="AD90" s="6"/>
       <c r="AF90" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23872</v>
       </c>
       <c r="AG90" s="71">
@@ -40544,11 +40916,15 @@
         <v>88</v>
       </c>
       <c r="AX90" t="b">
-        <f>AW90=A90</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY90" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -40612,7 +40988,7 @@
       </c>
       <c r="AD91" s="6"/>
       <c r="AF91" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30960</v>
       </c>
       <c r="AG91" s="71">
@@ -40673,11 +41049,15 @@
         <v>89</v>
       </c>
       <c r="AX91" t="b">
-        <f>AW91=A91</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY91" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -40739,7 +41119,7 @@
       </c>
       <c r="AD92" s="6"/>
       <c r="AF92" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1860</v>
       </c>
       <c r="AG92" s="71">
@@ -40800,11 +41180,15 @@
         <v>90</v>
       </c>
       <c r="AX92" t="b">
-        <f>AW92=A92</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY92" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -40862,7 +41246,7 @@
       </c>
       <c r="AD93" s="6"/>
       <c r="AF93" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>45241</v>
       </c>
       <c r="AG93" s="71">
@@ -40923,11 +41307,15 @@
         <v>91</v>
       </c>
       <c r="AX93" t="b">
-        <f>AW93=A93</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY93" s="73">
+        <f t="shared" si="7"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -40985,7 +41373,7 @@
       </c>
       <c r="AD94" s="6"/>
       <c r="AF94" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>35624</v>
       </c>
       <c r="AG94" s="71">
@@ -41046,11 +41434,15 @@
         <v>92</v>
       </c>
       <c r="AX94" t="b">
-        <f>AW94=A94</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY94" s="73">
+        <f t="shared" si="7"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -41102,7 +41494,7 @@
       </c>
       <c r="AD95" s="6"/>
       <c r="AF95" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12194</v>
       </c>
       <c r="AG95" s="71">
@@ -41163,11 +41555,15 @@
         <v>93</v>
       </c>
       <c r="AX95" t="b">
-        <f>AW95=A95</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY95" s="73">
+        <f t="shared" si="7"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -41253,11 +41649,15 @@
       </c>
       <c r="AO96" s="7"/>
       <c r="AX96" t="b">
-        <f>AW96=A96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY96" s="73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -41267,9 +41667,7 @@
       <c r="C97" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="6">
-        <v>25827</v>
-      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="6">
         <v>25827</v>
       </c>
@@ -41323,7 +41721,7 @@
       </c>
       <c r="AD97" s="6"/>
       <c r="AF97" s="7">
-        <f>IF(ISERROR(INDEX(E97:AD97,MATCH(TRUE,INDEX((E97:AD97&lt;&gt;0),0),0))),"",INDEX(E97:AD97,MATCH(TRUE,INDEX((E97:AD97&lt;&gt;0),0),0)))</f>
+        <f t="shared" ref="AF97:AF128" si="8">IF(ISERROR(INDEX(E97:AD97,MATCH(TRUE,INDEX((E97:AD97&lt;&gt;0),0),0))),"",INDEX(E97:AD97,MATCH(TRUE,INDEX((E97:AD97&lt;&gt;0),0),0)))</f>
         <v>25827</v>
       </c>
       <c r="AG97" s="71">
@@ -41384,11 +41782,15 @@
         <v>95</v>
       </c>
       <c r="AX97" t="b">
-        <f>AW97=A97</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AY97" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -41398,9 +41800,7 @@
       <c r="C98" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="6">
-        <v>34964</v>
-      </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="6">
         <v>34964</v>
       </c>
@@ -41448,7 +41848,7 @@
       </c>
       <c r="AD98" s="6"/>
       <c r="AF98" s="7">
-        <f>IF(ISERROR(INDEX(E98:AD98,MATCH(TRUE,INDEX((E98:AD98&lt;&gt;0),0),0))),"",INDEX(E98:AD98,MATCH(TRUE,INDEX((E98:AD98&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>34964</v>
       </c>
       <c r="AG98" s="71">
@@ -41509,11 +41909,15 @@
         <v>96</v>
       </c>
       <c r="AX98" t="b">
-        <f>AW98=A98</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX98:AX129" si="9">AW98=A98</f>
+        <v>1</v>
+      </c>
+      <c r="AY98" s="73">
+        <f t="shared" si="7"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -41523,9 +41927,7 @@
       <c r="C99" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="6">
-        <v>30104</v>
-      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="6">
         <v>30104</v>
       </c>
@@ -41575,7 +41977,7 @@
       </c>
       <c r="AD99" s="6"/>
       <c r="AF99" s="7">
-        <f>IF(ISERROR(INDEX(E99:AD99,MATCH(TRUE,INDEX((E99:AD99&lt;&gt;0),0),0))),"",INDEX(E99:AD99,MATCH(TRUE,INDEX((E99:AD99&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>30104</v>
       </c>
       <c r="AG99" s="71">
@@ -41636,11 +42038,15 @@
         <v>97</v>
       </c>
       <c r="AX99" t="b">
-        <f>AW99=A99</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY99" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -41650,9 +42056,7 @@
       <c r="C100" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="6">
-        <v>4932</v>
-      </c>
+      <c r="D100" s="6"/>
       <c r="E100" s="6">
         <v>4932</v>
       </c>
@@ -41696,7 +42100,7 @@
       </c>
       <c r="AD100" s="6"/>
       <c r="AF100" s="7">
-        <f>IF(ISERROR(INDEX(E100:AD100,MATCH(TRUE,INDEX((E100:AD100&lt;&gt;0),0),0))),"",INDEX(E100:AD100,MATCH(TRUE,INDEX((E100:AD100&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>4932</v>
       </c>
       <c r="AG100" s="71">
@@ -41757,11 +42161,15 @@
         <v>98</v>
       </c>
       <c r="AX100" t="b">
-        <f>AW100=A100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY100" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -41771,9 +42179,7 @@
       <c r="C101" t="s">
         <v>94</v>
       </c>
-      <c r="D101" s="6">
-        <v>41816</v>
-      </c>
+      <c r="D101" s="6"/>
       <c r="E101" s="6">
         <v>41816</v>
       </c>
@@ -41821,7 +42227,7 @@
       </c>
       <c r="AD101" s="6"/>
       <c r="AF101" s="7">
-        <f>IF(ISERROR(INDEX(E101:AD101,MATCH(TRUE,INDEX((E101:AD101&lt;&gt;0),0),0))),"",INDEX(E101:AD101,MATCH(TRUE,INDEX((E101:AD101&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>41816</v>
       </c>
       <c r="AG101" s="71">
@@ -41882,11 +42288,15 @@
         <v>99</v>
       </c>
       <c r="AX101" t="b">
-        <f>AW101=A101</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY101" s="73">
+        <f t="shared" si="7"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -41896,9 +42306,7 @@
       <c r="C102" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="6">
-        <v>34276</v>
-      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="6">
         <v>34276</v>
       </c>
@@ -41954,7 +42362,7 @@
       </c>
       <c r="AD102" s="6"/>
       <c r="AF102" s="7">
-        <f>IF(ISERROR(INDEX(E102:AD102,MATCH(TRUE,INDEX((E102:AD102&lt;&gt;0),0),0))),"",INDEX(E102:AD102,MATCH(TRUE,INDEX((E102:AD102&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>34276</v>
       </c>
       <c r="AG102" s="71">
@@ -42015,11 +42423,15 @@
         <v>100</v>
       </c>
       <c r="AX102" t="b">
-        <f>AW102=A102</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY102" s="73">
+        <f t="shared" si="7"/>
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -42029,9 +42441,7 @@
       <c r="C103" t="s">
         <v>94</v>
       </c>
-      <c r="D103" s="6">
-        <v>1382</v>
-      </c>
+      <c r="D103" s="6"/>
       <c r="E103" s="6">
         <v>1382</v>
       </c>
@@ -42077,7 +42487,7 @@
       </c>
       <c r="AD103" s="6"/>
       <c r="AF103" s="7">
-        <f>IF(ISERROR(INDEX(E103:AD103,MATCH(TRUE,INDEX((E103:AD103&lt;&gt;0),0),0))),"",INDEX(E103:AD103,MATCH(TRUE,INDEX((E103:AD103&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>1382</v>
       </c>
       <c r="AG103" s="71">
@@ -42138,11 +42548,15 @@
         <v>101</v>
       </c>
       <c r="AX103" t="b">
-        <f>AW103=A103</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY103" s="73">
+        <f t="shared" si="7"/>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -42152,9 +42566,7 @@
       <c r="C104" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="6">
-        <v>24210</v>
-      </c>
+      <c r="D104" s="6"/>
       <c r="E104" s="6">
         <v>24210</v>
       </c>
@@ -42204,7 +42616,7 @@
       </c>
       <c r="AD104" s="6"/>
       <c r="AF104" s="7">
-        <f>IF(ISERROR(INDEX(E104:AD104,MATCH(TRUE,INDEX((E104:AD104&lt;&gt;0),0),0))),"",INDEX(E104:AD104,MATCH(TRUE,INDEX((E104:AD104&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>24210</v>
       </c>
       <c r="AG104" s="71">
@@ -42265,11 +42677,15 @@
         <v>102</v>
       </c>
       <c r="AX104" t="b">
-        <f>AW104=A104</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY104" s="73">
+        <f t="shared" si="7"/>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -42279,9 +42695,7 @@
       <c r="C105" t="s">
         <v>100</v>
       </c>
-      <c r="D105" s="6">
-        <v>5344</v>
-      </c>
+      <c r="D105" s="6"/>
       <c r="E105" s="6">
         <v>5344</v>
       </c>
@@ -42329,7 +42743,7 @@
       </c>
       <c r="AD105" s="6"/>
       <c r="AF105" s="7">
-        <f>IF(ISERROR(INDEX(E105:AD105,MATCH(TRUE,INDEX((E105:AD105&lt;&gt;0),0),0))),"",INDEX(E105:AD105,MATCH(TRUE,INDEX((E105:AD105&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>5344</v>
       </c>
       <c r="AG105" s="71">
@@ -42390,11 +42804,15 @@
         <v>103</v>
       </c>
       <c r="AX105" t="b">
-        <f>AW105=A105</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY105" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -42404,9 +42822,7 @@
       <c r="C106" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="6">
-        <v>42459</v>
-      </c>
+      <c r="D106" s="6"/>
       <c r="E106" s="6">
         <v>42459</v>
       </c>
@@ -42458,7 +42874,7 @@
       </c>
       <c r="AD106" s="6"/>
       <c r="AF106" s="7">
-        <f>IF(ISERROR(INDEX(E106:AD106,MATCH(TRUE,INDEX((E106:AD106&lt;&gt;0),0),0))),"",INDEX(E106:AD106,MATCH(TRUE,INDEX((E106:AD106&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>42459</v>
       </c>
       <c r="AG106" s="71">
@@ -42519,11 +42935,15 @@
         <v>104</v>
       </c>
       <c r="AX106" t="b">
-        <f>AW106=A106</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY106" s="73">
+        <f t="shared" si="7"/>
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -42533,9 +42953,7 @@
       <c r="C107" t="s">
         <v>100</v>
       </c>
-      <c r="D107" s="6">
-        <v>12047</v>
-      </c>
+      <c r="D107" s="6"/>
       <c r="E107" s="6">
         <v>12047</v>
       </c>
@@ -42583,7 +43001,7 @@
       </c>
       <c r="AD107" s="6"/>
       <c r="AF107" s="7">
-        <f>IF(ISERROR(INDEX(E107:AD107,MATCH(TRUE,INDEX((E107:AD107&lt;&gt;0),0),0))),"",INDEX(E107:AD107,MATCH(TRUE,INDEX((E107:AD107&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>12047</v>
       </c>
       <c r="AG107" s="71">
@@ -42644,11 +43062,15 @@
         <v>105</v>
       </c>
       <c r="AX107" t="b">
-        <f>AW107=A107</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY107" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -42658,9 +43080,7 @@
       <c r="C108" t="s">
         <v>50</v>
       </c>
-      <c r="D108" s="6">
-        <v>31478</v>
-      </c>
+      <c r="D108" s="6"/>
       <c r="E108" s="6">
         <v>31478</v>
       </c>
@@ -42712,7 +43132,7 @@
       </c>
       <c r="AD108" s="6"/>
       <c r="AF108" s="7">
-        <f>IF(ISERROR(INDEX(E108:AD108,MATCH(TRUE,INDEX((E108:AD108&lt;&gt;0),0),0))),"",INDEX(E108:AD108,MATCH(TRUE,INDEX((E108:AD108&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>31478</v>
       </c>
       <c r="AG108" s="71">
@@ -42773,11 +43193,15 @@
         <v>106</v>
       </c>
       <c r="AX108" t="b">
-        <f>AW108=A108</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY108" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -42787,9 +43211,7 @@
       <c r="C109" t="s">
         <v>80</v>
       </c>
-      <c r="D109" s="6">
-        <v>44484</v>
-      </c>
+      <c r="D109" s="6"/>
       <c r="E109" s="6">
         <v>44484</v>
       </c>
@@ -42839,7 +43261,7 @@
       </c>
       <c r="AD109" s="6"/>
       <c r="AF109" s="7">
-        <f>IF(ISERROR(INDEX(E109:AD109,MATCH(TRUE,INDEX((E109:AD109&lt;&gt;0),0),0))),"",INDEX(E109:AD109,MATCH(TRUE,INDEX((E109:AD109&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>44484</v>
       </c>
       <c r="AG109" s="71">
@@ -42900,11 +43322,15 @@
         <v>107</v>
       </c>
       <c r="AX109" t="b">
-        <f>AW109=A109</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY109" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -42914,9 +43340,7 @@
       <c r="C110" t="s">
         <v>101</v>
       </c>
-      <c r="D110" s="6">
-        <v>63171</v>
-      </c>
+      <c r="D110" s="6"/>
       <c r="E110" s="6">
         <v>63171</v>
       </c>
@@ -42968,7 +43392,7 @@
       </c>
       <c r="AD110" s="6"/>
       <c r="AF110" s="7">
-        <f>IF(ISERROR(INDEX(E110:AD110,MATCH(TRUE,INDEX((E110:AD110&lt;&gt;0),0),0))),"",INDEX(E110:AD110,MATCH(TRUE,INDEX((E110:AD110&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>63171</v>
       </c>
       <c r="AG110" s="71">
@@ -43029,11 +43453,15 @@
         <v>108</v>
       </c>
       <c r="AX110" t="b">
-        <f>AW110=A110</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY110" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -43043,9 +43471,7 @@
       <c r="C111" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D111" s="6">
-        <v>16012</v>
-      </c>
+      <c r="D111" s="6"/>
       <c r="E111" s="6">
         <v>16012</v>
       </c>
@@ -43095,7 +43521,7 @@
         <v>11042</v>
       </c>
       <c r="AF111" s="7">
-        <f>IF(ISERROR(INDEX(E111:AD111,MATCH(TRUE,INDEX((E111:AD111&lt;&gt;0),0),0))),"",INDEX(E111:AD111,MATCH(TRUE,INDEX((E111:AD111&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>16012</v>
       </c>
       <c r="AG111" s="71">
@@ -43156,11 +43582,15 @@
         <v>109</v>
       </c>
       <c r="AX111" t="b">
-        <f>AW111=A111</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY111" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -43170,9 +43600,7 @@
       <c r="C112" t="s">
         <v>103</v>
       </c>
-      <c r="D112" s="6">
-        <v>10887</v>
-      </c>
+      <c r="D112" s="6"/>
       <c r="E112" s="6">
         <v>10887</v>
       </c>
@@ -43222,7 +43650,7 @@
       </c>
       <c r="AD112" s="6"/>
       <c r="AF112" s="7">
-        <f>IF(ISERROR(INDEX(E112:AD112,MATCH(TRUE,INDEX((E112:AD112&lt;&gt;0),0),0))),"",INDEX(E112:AD112,MATCH(TRUE,INDEX((E112:AD112&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>10887</v>
       </c>
       <c r="AG112" s="71">
@@ -43283,11 +43711,15 @@
         <v>110</v>
       </c>
       <c r="AX112" t="b">
-        <f>AW112=A112</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY112" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -43297,9 +43729,7 @@
       <c r="C113" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="6">
-        <v>22883</v>
-      </c>
+      <c r="D113" s="6"/>
       <c r="E113" s="6">
         <v>22883</v>
       </c>
@@ -43345,7 +43775,7 @@
       </c>
       <c r="AD113" s="6"/>
       <c r="AF113" s="7">
-        <f>IF(ISERROR(INDEX(E113:AD113,MATCH(TRUE,INDEX((E113:AD113&lt;&gt;0),0),0))),"",INDEX(E113:AD113,MATCH(TRUE,INDEX((E113:AD113&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>22883</v>
       </c>
       <c r="AG113" s="71">
@@ -43406,11 +43836,15 @@
         <v>111</v>
       </c>
       <c r="AX113" t="b">
-        <f>AW113=A113</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY113" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -43420,9 +43854,7 @@
       <c r="C114" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="6">
-        <v>5159</v>
-      </c>
+      <c r="D114" s="6"/>
       <c r="E114" s="6">
         <v>5159</v>
       </c>
@@ -43470,7 +43902,7 @@
       </c>
       <c r="AD114" s="6"/>
       <c r="AF114" s="7">
-        <f>IF(ISERROR(INDEX(E114:AD114,MATCH(TRUE,INDEX((E114:AD114&lt;&gt;0),0),0))),"",INDEX(E114:AD114,MATCH(TRUE,INDEX((E114:AD114&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>5159</v>
       </c>
       <c r="AG114" s="71">
@@ -43531,11 +43963,15 @@
         <v>112</v>
       </c>
       <c r="AX114" t="b">
-        <f>AW114=A114</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY114" s="73">
+        <f t="shared" si="7"/>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -43545,9 +43981,7 @@
       <c r="C115" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="6">
-        <v>1178</v>
-      </c>
+      <c r="D115" s="6"/>
       <c r="E115" s="6">
         <v>1178</v>
       </c>
@@ -43595,7 +44029,7 @@
       </c>
       <c r="AD115" s="6"/>
       <c r="AF115" s="7">
-        <f>IF(ISERROR(INDEX(E115:AD115,MATCH(TRUE,INDEX((E115:AD115&lt;&gt;0),0),0))),"",INDEX(E115:AD115,MATCH(TRUE,INDEX((E115:AD115&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>1178</v>
       </c>
       <c r="AG115" s="71">
@@ -43656,11 +44090,15 @@
         <v>113</v>
       </c>
       <c r="AX115" t="b">
-        <f>AW115=A115</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY115" s="73">
+        <f t="shared" si="7"/>
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -43670,9 +44108,7 @@
       <c r="C116" t="s">
         <v>107</v>
       </c>
-      <c r="D116" s="6">
-        <v>2697</v>
-      </c>
+      <c r="D116" s="6"/>
       <c r="E116" s="6">
         <v>2697</v>
       </c>
@@ -43720,7 +44156,7 @@
       </c>
       <c r="AD116" s="6"/>
       <c r="AF116" s="7">
-        <f>IF(ISERROR(INDEX(E116:AD116,MATCH(TRUE,INDEX((E116:AD116&lt;&gt;0),0),0))),"",INDEX(E116:AD116,MATCH(TRUE,INDEX((E116:AD116&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>2697</v>
       </c>
       <c r="AG116" s="71">
@@ -43781,11 +44217,15 @@
         <v>114</v>
       </c>
       <c r="AX116" t="b">
-        <f>AW116=A116</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY116" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -43795,9 +44235,7 @@
       <c r="C117" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="6">
-        <v>37093</v>
-      </c>
+      <c r="D117" s="6"/>
       <c r="E117" s="6">
         <v>37093</v>
       </c>
@@ -43845,7 +44283,7 @@
       </c>
       <c r="AD117" s="6"/>
       <c r="AF117" s="7">
-        <f>IF(ISERROR(INDEX(E117:AD117,MATCH(TRUE,INDEX((E117:AD117&lt;&gt;0),0),0))),"",INDEX(E117:AD117,MATCH(TRUE,INDEX((E117:AD117&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>37093</v>
       </c>
       <c r="AG117" s="71">
@@ -43906,11 +44344,15 @@
         <v>115</v>
       </c>
       <c r="AX117" t="b">
-        <f>AW117=A117</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY117" s="73">
+        <f t="shared" si="7"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -43920,9 +44362,7 @@
       <c r="C118" t="s">
         <v>59</v>
       </c>
-      <c r="D118" s="6">
-        <v>2026</v>
-      </c>
+      <c r="D118" s="6"/>
       <c r="E118" s="6">
         <v>2026</v>
       </c>
@@ -43968,7 +44408,7 @@
       </c>
       <c r="AD118" s="6"/>
       <c r="AF118" s="7">
-        <f>IF(ISERROR(INDEX(E118:AD118,MATCH(TRUE,INDEX((E118:AD118&lt;&gt;0),0),0))),"",INDEX(E118:AD118,MATCH(TRUE,INDEX((E118:AD118&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="AG118" s="71">
@@ -44029,11 +44469,15 @@
         <v>116</v>
       </c>
       <c r="AX118" t="b">
-        <f>AW118=A118</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY118" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -44043,9 +44487,7 @@
       <c r="C119" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="6">
-        <v>4845</v>
-      </c>
+      <c r="D119" s="6"/>
       <c r="E119" s="6">
         <v>4845</v>
       </c>
@@ -44093,7 +44535,7 @@
       </c>
       <c r="AD119" s="6"/>
       <c r="AF119" s="7">
-        <f>IF(ISERROR(INDEX(E119:AD119,MATCH(TRUE,INDEX((E119:AD119&lt;&gt;0),0),0))),"",INDEX(E119:AD119,MATCH(TRUE,INDEX((E119:AD119&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>4845</v>
       </c>
       <c r="AG119" s="71">
@@ -44154,11 +44596,15 @@
         <v>117</v>
       </c>
       <c r="AX119" t="b">
-        <f>AW119=A119</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY119" s="73">
+        <f t="shared" si="7"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -44168,9 +44614,7 @@
       <c r="C120" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="6">
-        <v>29155</v>
-      </c>
+      <c r="D120" s="6"/>
       <c r="E120" s="6">
         <v>29155</v>
       </c>
@@ -44222,7 +44666,7 @@
       </c>
       <c r="AD120" s="6"/>
       <c r="AF120" s="7">
-        <f>IF(ISERROR(INDEX(E120:AD120,MATCH(TRUE,INDEX((E120:AD120&lt;&gt;0),0),0))),"",INDEX(E120:AD120,MATCH(TRUE,INDEX((E120:AD120&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>29155</v>
       </c>
       <c r="AG120" s="71">
@@ -44283,11 +44727,15 @@
         <v>118</v>
       </c>
       <c r="AX120" t="b">
-        <f>AW120=A120</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY120" s="73">
+        <f t="shared" si="7"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -44297,9 +44745,7 @@
       <c r="C121" t="s">
         <v>110</v>
       </c>
-      <c r="D121" s="6">
-        <v>5375</v>
-      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="6">
         <v>5375</v>
       </c>
@@ -44349,7 +44795,7 @@
         <v>17123</v>
       </c>
       <c r="AF121" s="7">
-        <f>IF(ISERROR(INDEX(E121:AD121,MATCH(TRUE,INDEX((E121:AD121&lt;&gt;0),0),0))),"",INDEX(E121:AD121,MATCH(TRUE,INDEX((E121:AD121&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>5375</v>
       </c>
       <c r="AG121" s="71">
@@ -44410,11 +44856,15 @@
         <v>119</v>
       </c>
       <c r="AX121" t="b">
-        <f>AW121=A121</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY121" s="73">
+        <f t="shared" si="7"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -44424,9 +44874,7 @@
       <c r="C122" t="s">
         <v>60</v>
       </c>
-      <c r="D122" s="6">
-        <v>24378</v>
-      </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="6">
         <v>24378</v>
       </c>
@@ -44480,7 +44928,7 @@
       </c>
       <c r="AD122" s="6"/>
       <c r="AF122" s="7">
-        <f>IF(ISERROR(INDEX(E122:AD122,MATCH(TRUE,INDEX((E122:AD122&lt;&gt;0),0),0))),"",INDEX(E122:AD122,MATCH(TRUE,INDEX((E122:AD122&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>24378</v>
       </c>
       <c r="AG122" s="71">
@@ -44541,11 +44989,15 @@
         <v>120</v>
       </c>
       <c r="AX122" t="b">
-        <f>AW122=A122</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY122" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -44555,9 +45007,7 @@
       <c r="C123" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="6">
-        <v>20605</v>
-      </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="6">
         <v>20605</v>
       </c>
@@ -44607,7 +45057,7 @@
       </c>
       <c r="AD123" s="6"/>
       <c r="AF123" s="7">
-        <f>IF(ISERROR(INDEX(E123:AD123,MATCH(TRUE,INDEX((E123:AD123&lt;&gt;0),0),0))),"",INDEX(E123:AD123,MATCH(TRUE,INDEX((E123:AD123&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>20605</v>
       </c>
       <c r="AG123" s="71">
@@ -44668,11 +45118,15 @@
         <v>121</v>
       </c>
       <c r="AX123" t="b">
-        <f>AW123=A123</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY123" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -44682,9 +45136,7 @@
       <c r="C124" t="s">
         <v>112</v>
       </c>
-      <c r="D124" s="6">
-        <v>22687</v>
-      </c>
+      <c r="D124" s="6"/>
       <c r="E124" s="6">
         <v>22687</v>
       </c>
@@ -44734,7 +45186,7 @@
       </c>
       <c r="AD124" s="6"/>
       <c r="AF124" s="7">
-        <f>IF(ISERROR(INDEX(E124:AD124,MATCH(TRUE,INDEX((E124:AD124&lt;&gt;0),0),0))),"",INDEX(E124:AD124,MATCH(TRUE,INDEX((E124:AD124&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>22687</v>
       </c>
       <c r="AG124" s="71">
@@ -44795,11 +45247,15 @@
         <v>122</v>
       </c>
       <c r="AX124" t="b">
-        <f>AW124=A124</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY124" s="73">
+        <f t="shared" si="7"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -44809,9 +45265,7 @@
       <c r="C125" t="s">
         <v>113</v>
       </c>
-      <c r="D125" s="6">
-        <v>13135</v>
-      </c>
+      <c r="D125" s="6"/>
       <c r="E125" s="6">
         <v>13135</v>
       </c>
@@ -44859,7 +45313,7 @@
       </c>
       <c r="AD125" s="6"/>
       <c r="AF125" s="7">
-        <f>IF(ISERROR(INDEX(E125:AD125,MATCH(TRUE,INDEX((E125:AD125&lt;&gt;0),0),0))),"",INDEX(E125:AD125,MATCH(TRUE,INDEX((E125:AD125&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>13135</v>
       </c>
       <c r="AG125" s="71">
@@ -44920,11 +45374,15 @@
         <v>123</v>
       </c>
       <c r="AX125" t="b">
-        <f>AW125=A125</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY125" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -44934,9 +45392,7 @@
       <c r="C126" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D126" s="6">
-        <v>13530</v>
-      </c>
+      <c r="D126" s="6"/>
       <c r="E126" s="6">
         <v>13530</v>
       </c>
@@ -44984,7 +45440,7 @@
       </c>
       <c r="AD126" s="6"/>
       <c r="AF126" s="7">
-        <f>IF(ISERROR(INDEX(E126:AD126,MATCH(TRUE,INDEX((E126:AD126&lt;&gt;0),0),0))),"",INDEX(E126:AD126,MATCH(TRUE,INDEX((E126:AD126&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>13530</v>
       </c>
       <c r="AG126" s="71">
@@ -45045,11 +45501,15 @@
         <v>124</v>
       </c>
       <c r="AX126" t="b">
-        <f>AW126=A126</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY126" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -45059,9 +45519,7 @@
       <c r="C127" t="s">
         <v>116</v>
       </c>
-      <c r="D127" s="6">
-        <v>10020</v>
-      </c>
+      <c r="D127" s="6"/>
       <c r="E127" s="6">
         <v>10020</v>
       </c>
@@ -45111,7 +45569,7 @@
       </c>
       <c r="AD127" s="6"/>
       <c r="AF127" s="7">
-        <f>IF(ISERROR(INDEX(E127:AD127,MATCH(TRUE,INDEX((E127:AD127&lt;&gt;0),0),0))),"",INDEX(E127:AD127,MATCH(TRUE,INDEX((E127:AD127&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>10020</v>
       </c>
       <c r="AG127" s="71">
@@ -45172,11 +45630,15 @@
         <v>125</v>
       </c>
       <c r="AX127" t="b">
-        <f>AW127=A127</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY127" s="73">
+        <f t="shared" si="7"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -45186,9 +45648,7 @@
       <c r="C128" t="s">
         <v>117</v>
       </c>
-      <c r="D128" s="6">
-        <v>26421</v>
-      </c>
+      <c r="D128" s="6"/>
       <c r="E128" s="6">
         <v>26421</v>
       </c>
@@ -45236,7 +45696,7 @@
       </c>
       <c r="AD128" s="6"/>
       <c r="AF128" s="7">
-        <f>IF(ISERROR(INDEX(E128:AD128,MATCH(TRUE,INDEX((E128:AD128&lt;&gt;0),0),0))),"",INDEX(E128:AD128,MATCH(TRUE,INDEX((E128:AD128&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="8"/>
         <v>26421</v>
       </c>
       <c r="AG128" s="71">
@@ -45297,11 +45757,15 @@
         <v>126</v>
       </c>
       <c r="AX128" t="b">
-        <f>AW128=A128</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY128" s="73">
+        <f t="shared" si="7"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -45311,9 +45775,7 @@
       <c r="C129" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="6">
-        <v>26287</v>
-      </c>
+      <c r="D129" s="6"/>
       <c r="E129" s="6">
         <v>26287</v>
       </c>
@@ -45363,7 +45825,7 @@
       </c>
       <c r="AD129" s="6"/>
       <c r="AF129" s="7">
-        <f>IF(ISERROR(INDEX(E129:AD129,MATCH(TRUE,INDEX((E129:AD129&lt;&gt;0),0),0))),"",INDEX(E129:AD129,MATCH(TRUE,INDEX((E129:AD129&lt;&gt;0),0),0)))</f>
+        <f t="shared" ref="AF129:AF160" si="10">IF(ISERROR(INDEX(E129:AD129,MATCH(TRUE,INDEX((E129:AD129&lt;&gt;0),0),0))),"",INDEX(E129:AD129,MATCH(TRUE,INDEX((E129:AD129&lt;&gt;0),0),0)))</f>
         <v>26287</v>
       </c>
       <c r="AG129" s="71">
@@ -45424,11 +45886,15 @@
         <v>127</v>
       </c>
       <c r="AX129" t="b">
-        <f>AW129=A129</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AY129" s="73">
+        <f t="shared" si="7"/>
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -45438,9 +45904,7 @@
       <c r="C130" t="s">
         <v>117</v>
       </c>
-      <c r="D130" s="6">
-        <v>27297</v>
-      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="6">
         <v>27297</v>
       </c>
@@ -45490,7 +45954,7 @@
       </c>
       <c r="AD130" s="6"/>
       <c r="AF130" s="7">
-        <f>IF(ISERROR(INDEX(E130:AD130,MATCH(TRUE,INDEX((E130:AD130&lt;&gt;0),0),0))),"",INDEX(E130:AD130,MATCH(TRUE,INDEX((E130:AD130&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>27297</v>
       </c>
       <c r="AG130" s="71">
@@ -45551,11 +46015,15 @@
         <v>128</v>
       </c>
       <c r="AX130" t="b">
-        <f>AW130=A130</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX130:AX161" si="11">AW130=A130</f>
+        <v>1</v>
+      </c>
+      <c r="AY130" s="73">
+        <f t="shared" si="7"/>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -45565,9 +46033,7 @@
       <c r="C131" t="s">
         <v>117</v>
       </c>
-      <c r="D131" s="6">
-        <v>5485</v>
-      </c>
+      <c r="D131" s="6"/>
       <c r="E131" s="6">
         <v>5485</v>
       </c>
@@ -45609,7 +46075,7 @@
       </c>
       <c r="AD131" s="6"/>
       <c r="AF131" s="7">
-        <f>IF(ISERROR(INDEX(E131:AD131,MATCH(TRUE,INDEX((E131:AD131&lt;&gt;0),0),0))),"",INDEX(E131:AD131,MATCH(TRUE,INDEX((E131:AD131&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>5485</v>
       </c>
       <c r="AG131" s="71">
@@ -45670,11 +46136,15 @@
         <v>129</v>
       </c>
       <c r="AX131" t="b">
-        <f>AW131=A131</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY131" s="73">
+        <f t="shared" ref="AY131:AY165" si="12">IF(LEN(AP131)&gt;0,VALUE(LEFT(AP131,10)),"")</f>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -45684,9 +46154,7 @@
       <c r="C132" t="s">
         <v>60</v>
       </c>
-      <c r="D132" s="6">
-        <v>33820</v>
-      </c>
+      <c r="D132" s="6"/>
       <c r="E132" s="6">
         <v>33820</v>
       </c>
@@ -45738,7 +46206,7 @@
       </c>
       <c r="AD132" s="6"/>
       <c r="AF132" s="7">
-        <f>IF(ISERROR(INDEX(E132:AD132,MATCH(TRUE,INDEX((E132:AD132&lt;&gt;0),0),0))),"",INDEX(E132:AD132,MATCH(TRUE,INDEX((E132:AD132&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>33820</v>
       </c>
       <c r="AG132" s="71">
@@ -45799,11 +46267,15 @@
         <v>130</v>
       </c>
       <c r="AX132" t="b">
-        <f>AW132=A132</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY132" s="73">
+        <f t="shared" si="12"/>
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -45813,9 +46285,7 @@
       <c r="C133" t="s">
         <v>59</v>
       </c>
-      <c r="D133" s="6">
-        <v>31736</v>
-      </c>
+      <c r="D133" s="6"/>
       <c r="E133" s="6">
         <v>31736</v>
       </c>
@@ -45867,7 +46337,7 @@
       </c>
       <c r="AD133" s="6"/>
       <c r="AF133" s="7">
-        <f>IF(ISERROR(INDEX(E133:AD133,MATCH(TRUE,INDEX((E133:AD133&lt;&gt;0),0),0))),"",INDEX(E133:AD133,MATCH(TRUE,INDEX((E133:AD133&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>31736</v>
       </c>
       <c r="AG133" s="71">
@@ -45928,11 +46398,15 @@
         <v>131</v>
       </c>
       <c r="AX133" t="b">
-        <f>AW133=A133</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY133" s="73">
+        <f t="shared" si="12"/>
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -45942,9 +46416,7 @@
       <c r="C134" t="s">
         <v>112</v>
       </c>
-      <c r="D134" s="6">
-        <v>31684</v>
-      </c>
+      <c r="D134" s="6"/>
       <c r="E134" s="6">
         <v>31684</v>
       </c>
@@ -45994,7 +46466,7 @@
       </c>
       <c r="AD134" s="6"/>
       <c r="AF134" s="7">
-        <f>IF(ISERROR(INDEX(E134:AD134,MATCH(TRUE,INDEX((E134:AD134&lt;&gt;0),0),0))),"",INDEX(E134:AD134,MATCH(TRUE,INDEX((E134:AD134&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>31684</v>
       </c>
       <c r="AG134" s="71">
@@ -46055,11 +46527,15 @@
         <v>132</v>
       </c>
       <c r="AX134" t="b">
-        <f>AW134=A134</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY134" s="73">
+        <f t="shared" si="12"/>
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -46069,9 +46545,7 @@
       <c r="C135" t="s">
         <v>116</v>
       </c>
-      <c r="D135" s="6">
-        <v>28342</v>
-      </c>
+      <c r="D135" s="6"/>
       <c r="E135" s="6">
         <v>28342</v>
       </c>
@@ -46121,7 +46595,7 @@
       </c>
       <c r="AD135" s="6"/>
       <c r="AF135" s="7">
-        <f>IF(ISERROR(INDEX(E135:AD135,MATCH(TRUE,INDEX((E135:AD135&lt;&gt;0),0),0))),"",INDEX(E135:AD135,MATCH(TRUE,INDEX((E135:AD135&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>28342</v>
       </c>
       <c r="AG135" s="71">
@@ -46182,11 +46656,15 @@
         <v>133</v>
       </c>
       <c r="AX135" t="b">
-        <f>AW135=A135</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY135" s="73">
+        <f t="shared" si="12"/>
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -46196,9 +46674,7 @@
       <c r="C136" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="6">
-        <v>33453</v>
-      </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="6">
         <v>33453</v>
       </c>
@@ -46248,7 +46724,7 @@
       </c>
       <c r="AD136" s="6"/>
       <c r="AF136" s="7">
-        <f>IF(ISERROR(INDEX(E136:AD136,MATCH(TRUE,INDEX((E136:AD136&lt;&gt;0),0),0))),"",INDEX(E136:AD136,MATCH(TRUE,INDEX((E136:AD136&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>33453</v>
       </c>
       <c r="AG136" s="71">
@@ -46309,11 +46785,15 @@
         <v>134</v>
       </c>
       <c r="AX136" t="b">
-        <f>AW136=A136</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY136" s="73">
+        <f t="shared" si="12"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -46323,9 +46803,7 @@
       <c r="C137" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="6">
-        <v>23932</v>
-      </c>
+      <c r="D137" s="6"/>
       <c r="E137" s="6">
         <v>23932</v>
       </c>
@@ -46373,7 +46851,7 @@
       </c>
       <c r="AD137" s="6"/>
       <c r="AF137" s="7">
-        <f>IF(ISERROR(INDEX(E137:AD137,MATCH(TRUE,INDEX((E137:AD137&lt;&gt;0),0),0))),"",INDEX(E137:AD137,MATCH(TRUE,INDEX((E137:AD137&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>23932</v>
       </c>
       <c r="AG137" s="71">
@@ -46434,11 +46912,15 @@
         <v>135</v>
       </c>
       <c r="AX137" t="b">
-        <f>AW137=A137</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY137" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -46448,9 +46930,7 @@
       <c r="C138" t="s">
         <v>119</v>
       </c>
-      <c r="D138" s="6">
-        <v>18219</v>
-      </c>
+      <c r="D138" s="6"/>
       <c r="E138" s="6">
         <v>18219</v>
       </c>
@@ -46496,7 +46976,7 @@
       </c>
       <c r="AD138" s="6"/>
       <c r="AF138" s="7">
-        <f>IF(ISERROR(INDEX(E138:AD138,MATCH(TRUE,INDEX((E138:AD138&lt;&gt;0),0),0))),"",INDEX(E138:AD138,MATCH(TRUE,INDEX((E138:AD138&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>18219</v>
       </c>
       <c r="AG138" s="71">
@@ -46557,11 +47037,15 @@
         <v>136</v>
       </c>
       <c r="AX138" t="b">
-        <f>AW138=A138</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY138" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -46571,9 +47055,7 @@
       <c r="C139" t="s">
         <v>119</v>
       </c>
-      <c r="D139" s="6">
-        <v>19387</v>
-      </c>
+      <c r="D139" s="6"/>
       <c r="E139" s="6">
         <v>19387</v>
       </c>
@@ -46619,7 +47101,7 @@
       </c>
       <c r="AD139" s="6"/>
       <c r="AF139" s="7">
-        <f>IF(ISERROR(INDEX(E139:AD139,MATCH(TRUE,INDEX((E139:AD139&lt;&gt;0),0),0))),"",INDEX(E139:AD139,MATCH(TRUE,INDEX((E139:AD139&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>19387</v>
       </c>
       <c r="AG139" s="71">
@@ -46680,11 +47162,15 @@
         <v>137</v>
       </c>
       <c r="AX139" t="b">
-        <f>AW139=A139</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY139" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -46694,9 +47180,7 @@
       <c r="C140" t="s">
         <v>119</v>
       </c>
-      <c r="D140" s="6">
-        <v>22447</v>
-      </c>
+      <c r="D140" s="6"/>
       <c r="E140" s="6">
         <v>22447</v>
       </c>
@@ -46750,7 +47234,7 @@
       </c>
       <c r="AD140" s="6"/>
       <c r="AF140" s="7">
-        <f>IF(ISERROR(INDEX(E140:AD140,MATCH(TRUE,INDEX((E140:AD140&lt;&gt;0),0),0))),"",INDEX(E140:AD140,MATCH(TRUE,INDEX((E140:AD140&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>22447</v>
       </c>
       <c r="AG140" s="71">
@@ -46811,11 +47295,15 @@
         <v>138</v>
       </c>
       <c r="AX140" t="b">
-        <f>AW140=A140</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY140" s="73">
+        <f t="shared" si="12"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -46825,9 +47313,7 @@
       <c r="C141" t="s">
         <v>119</v>
       </c>
-      <c r="D141" s="6">
-        <v>5345</v>
-      </c>
+      <c r="D141" s="6"/>
       <c r="E141" s="6">
         <v>5345</v>
       </c>
@@ -46873,7 +47359,7 @@
       </c>
       <c r="AD141" s="6"/>
       <c r="AF141" s="7">
-        <f>IF(ISERROR(INDEX(E141:AD141,MATCH(TRUE,INDEX((E141:AD141&lt;&gt;0),0),0))),"",INDEX(E141:AD141,MATCH(TRUE,INDEX((E141:AD141&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>5345</v>
       </c>
       <c r="AG141" s="71">
@@ -46934,11 +47420,15 @@
         <v>139</v>
       </c>
       <c r="AX141" t="b">
-        <f>AW141=A141</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY141" s="73">
+        <f t="shared" si="12"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -46948,9 +47438,7 @@
       <c r="C142" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="6">
-        <v>33701</v>
-      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="6">
         <v>33701</v>
       </c>
@@ -47002,7 +47490,7 @@
       </c>
       <c r="AD142" s="6"/>
       <c r="AF142" s="7">
-        <f>IF(ISERROR(INDEX(E142:AD142,MATCH(TRUE,INDEX((E142:AD142&lt;&gt;0),0),0))),"",INDEX(E142:AD142,MATCH(TRUE,INDEX((E142:AD142&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>33701</v>
       </c>
       <c r="AG142" s="71">
@@ -47063,11 +47551,15 @@
         <v>140</v>
       </c>
       <c r="AX142" t="b">
-        <f>AW142=A142</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY142" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -47077,9 +47569,7 @@
       <c r="C143" t="s">
         <v>59</v>
       </c>
-      <c r="D143" s="6">
-        <v>28078</v>
-      </c>
+      <c r="D143" s="6"/>
       <c r="E143" s="6">
         <v>28078</v>
       </c>
@@ -47127,7 +47617,7 @@
       </c>
       <c r="AD143" s="6"/>
       <c r="AF143" s="7">
-        <f>IF(ISERROR(INDEX(E143:AD143,MATCH(TRUE,INDEX((E143:AD143&lt;&gt;0),0),0))),"",INDEX(E143:AD143,MATCH(TRUE,INDEX((E143:AD143&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>28078</v>
       </c>
       <c r="AG143" s="71">
@@ -47188,11 +47678,15 @@
         <v>141</v>
       </c>
       <c r="AX143" t="b">
-        <f>AW143=A143</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY143" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -47202,9 +47696,7 @@
       <c r="C144" t="s">
         <v>112</v>
       </c>
-      <c r="D144" s="6">
-        <v>25909</v>
-      </c>
+      <c r="D144" s="6"/>
       <c r="E144" s="6">
         <v>25909</v>
       </c>
@@ -47252,7 +47744,7 @@
       </c>
       <c r="AD144" s="6"/>
       <c r="AF144" s="7">
-        <f>IF(ISERROR(INDEX(E144:AD144,MATCH(TRUE,INDEX((E144:AD144&lt;&gt;0),0),0))),"",INDEX(E144:AD144,MATCH(TRUE,INDEX((E144:AD144&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>25909</v>
       </c>
       <c r="AG144" s="71">
@@ -47313,11 +47805,15 @@
         <v>142</v>
       </c>
       <c r="AX144" t="b">
-        <f>AW144=A144</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY144" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -47327,9 +47823,7 @@
       <c r="C145" t="s">
         <v>116</v>
       </c>
-      <c r="D145" s="6">
-        <v>28455</v>
-      </c>
+      <c r="D145" s="6"/>
       <c r="E145" s="6">
         <v>28455</v>
       </c>
@@ -47379,7 +47873,7 @@
       </c>
       <c r="AD145" s="6"/>
       <c r="AF145" s="7">
-        <f>IF(ISERROR(INDEX(E145:AD145,MATCH(TRUE,INDEX((E145:AD145&lt;&gt;0),0),0))),"",INDEX(E145:AD145,MATCH(TRUE,INDEX((E145:AD145&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>28455</v>
       </c>
       <c r="AG145" s="71">
@@ -47440,11 +47934,15 @@
         <v>143</v>
       </c>
       <c r="AX145" t="b">
-        <f>AW145=A145</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY145" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -47454,9 +47952,7 @@
       <c r="C146" t="s">
         <v>80</v>
       </c>
-      <c r="D146" s="6">
-        <v>30981</v>
-      </c>
+      <c r="D146" s="6"/>
       <c r="E146" s="6">
         <v>30981</v>
       </c>
@@ -47504,7 +48000,7 @@
       </c>
       <c r="AD146" s="6"/>
       <c r="AF146" s="7">
-        <f>IF(ISERROR(INDEX(E146:AD146,MATCH(TRUE,INDEX((E146:AD146&lt;&gt;0),0),0))),"",INDEX(E146:AD146,MATCH(TRUE,INDEX((E146:AD146&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>30981</v>
       </c>
       <c r="AG146" s="71">
@@ -47565,11 +48061,15 @@
         <v>144</v>
       </c>
       <c r="AX146" t="b">
-        <f>AW146=A146</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY146" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -47579,9 +48079,7 @@
       <c r="C147" t="s">
         <v>121</v>
       </c>
-      <c r="D147" s="6">
-        <v>22291</v>
-      </c>
+      <c r="D147" s="6"/>
       <c r="E147" s="6">
         <v>22291</v>
       </c>
@@ -47631,7 +48129,7 @@
       </c>
       <c r="AD147" s="6"/>
       <c r="AF147" s="7">
-        <f>IF(ISERROR(INDEX(E147:AD147,MATCH(TRUE,INDEX((E147:AD147&lt;&gt;0),0),0))),"",INDEX(E147:AD147,MATCH(TRUE,INDEX((E147:AD147&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>22291</v>
       </c>
       <c r="AG147" s="71">
@@ -47692,11 +48190,15 @@
         <v>145</v>
       </c>
       <c r="AX147" t="b">
-        <f>AW147=A147</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY147" s="73">
+        <f t="shared" si="12"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -47706,9 +48208,7 @@
       <c r="C148" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D148" s="6">
-        <v>22248</v>
-      </c>
+      <c r="D148" s="6"/>
       <c r="E148" s="6">
         <v>22248</v>
       </c>
@@ -47754,7 +48254,7 @@
       </c>
       <c r="AD148" s="6"/>
       <c r="AF148" s="7">
-        <f>IF(ISERROR(INDEX(E148:AD148,MATCH(TRUE,INDEX((E148:AD148&lt;&gt;0),0),0))),"",INDEX(E148:AD148,MATCH(TRUE,INDEX((E148:AD148&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>22248</v>
       </c>
       <c r="AG148" s="71">
@@ -47815,11 +48315,15 @@
         <v>146</v>
       </c>
       <c r="AX148" t="b">
-        <f>AW148=A148</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY148" s="73">
+        <f t="shared" si="12"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -47829,9 +48333,7 @@
       <c r="C149" t="s">
         <v>121</v>
       </c>
-      <c r="D149" s="6">
-        <v>18686</v>
-      </c>
+      <c r="D149" s="6"/>
       <c r="E149" s="6">
         <v>18686</v>
       </c>
@@ -47879,7 +48381,7 @@
       </c>
       <c r="AD149" s="6"/>
       <c r="AF149" s="7">
-        <f>IF(ISERROR(INDEX(E149:AD149,MATCH(TRUE,INDEX((E149:AD149&lt;&gt;0),0),0))),"",INDEX(E149:AD149,MATCH(TRUE,INDEX((E149:AD149&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>18686</v>
       </c>
       <c r="AG149" s="71">
@@ -47940,11 +48442,15 @@
         <v>147</v>
       </c>
       <c r="AX149" t="b">
-        <f>AW149=A149</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY149" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -47954,9 +48460,7 @@
       <c r="C150" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D150" s="6">
-        <v>21509</v>
-      </c>
+      <c r="D150" s="6"/>
       <c r="E150" s="6">
         <v>21509</v>
       </c>
@@ -48004,7 +48508,7 @@
       </c>
       <c r="AD150" s="6"/>
       <c r="AF150" s="7">
-        <f>IF(ISERROR(INDEX(E150:AD150,MATCH(TRUE,INDEX((E150:AD150&lt;&gt;0),0),0))),"",INDEX(E150:AD150,MATCH(TRUE,INDEX((E150:AD150&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>21509</v>
       </c>
       <c r="AG150" s="71">
@@ -48065,11 +48569,15 @@
         <v>148</v>
       </c>
       <c r="AX150" t="b">
-        <f>AW150=A150</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY150" s="73">
+        <f t="shared" si="12"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -48079,9 +48587,7 @@
       <c r="C151" t="s">
         <v>121</v>
       </c>
-      <c r="D151" s="6">
-        <v>4352</v>
-      </c>
+      <c r="D151" s="6"/>
       <c r="E151" s="6">
         <v>4352</v>
       </c>
@@ -48127,7 +48633,7 @@
       </c>
       <c r="AD151" s="6"/>
       <c r="AF151" s="7">
-        <f>IF(ISERROR(INDEX(E151:AD151,MATCH(TRUE,INDEX((E151:AD151&lt;&gt;0),0),0))),"",INDEX(E151:AD151,MATCH(TRUE,INDEX((E151:AD151&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>4352</v>
       </c>
       <c r="AG151" s="71">
@@ -48188,11 +48694,15 @@
         <v>149</v>
       </c>
       <c r="AX151" t="b">
-        <f>AW151=A151</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY151" s="73">
+        <f t="shared" si="12"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -48202,9 +48712,7 @@
       <c r="C152" t="s">
         <v>78</v>
       </c>
-      <c r="D152" s="6">
-        <v>6393</v>
-      </c>
+      <c r="D152" s="6"/>
       <c r="E152" s="6">
         <v>6393</v>
       </c>
@@ -48248,7 +48756,7 @@
       <c r="AC152" s="6"/>
       <c r="AD152" s="6"/>
       <c r="AF152" s="7">
-        <f>IF(ISERROR(INDEX(E152:AD152,MATCH(TRUE,INDEX((E152:AD152&lt;&gt;0),0),0))),"",INDEX(E152:AD152,MATCH(TRUE,INDEX((E152:AD152&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>6393</v>
       </c>
       <c r="AG152" s="71">
@@ -48309,11 +48817,15 @@
         <v>150</v>
       </c>
       <c r="AX152" t="b">
-        <f>AW152=A152</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY152" s="73">
+        <f t="shared" si="12"/>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -48323,9 +48835,7 @@
       <c r="C153" t="s">
         <v>119</v>
       </c>
-      <c r="D153" s="6">
-        <v>10713</v>
-      </c>
+      <c r="D153" s="6"/>
       <c r="E153" s="6">
         <v>10713</v>
       </c>
@@ -48367,7 +48877,7 @@
       <c r="AC153" s="6"/>
       <c r="AD153" s="6"/>
       <c r="AF153" s="7">
-        <f>IF(ISERROR(INDEX(E153:AD153,MATCH(TRUE,INDEX((E153:AD153&lt;&gt;0),0),0))),"",INDEX(E153:AD153,MATCH(TRUE,INDEX((E153:AD153&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>10713</v>
       </c>
       <c r="AG153" s="71">
@@ -48428,11 +48938,15 @@
         <v>151</v>
       </c>
       <c r="AX153" t="b">
-        <f>AW153=A153</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY153" s="73">
+        <f t="shared" si="12"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="154" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -48442,9 +48956,7 @@
       <c r="C154" t="s">
         <v>124</v>
       </c>
-      <c r="D154" s="6">
-        <v>21586</v>
-      </c>
+      <c r="D154" s="6"/>
       <c r="E154" s="6">
         <v>21586</v>
       </c>
@@ -48484,7 +48996,7 @@
       <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
       <c r="AF154" s="7">
-        <f>IF(ISERROR(INDEX(E154:AD154,MATCH(TRUE,INDEX((E154:AD154&lt;&gt;0),0),0))),"",INDEX(E154:AD154,MATCH(TRUE,INDEX((E154:AD154&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>21586</v>
       </c>
       <c r="AG154" s="71">
@@ -48545,11 +49057,15 @@
         <v>152</v>
       </c>
       <c r="AX154" t="b">
-        <f>AW154=A154</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY154" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="155" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -48559,9 +49075,7 @@
       <c r="C155" t="s">
         <v>119</v>
       </c>
-      <c r="D155" s="6">
-        <v>4027</v>
-      </c>
+      <c r="D155" s="6"/>
       <c r="E155" s="6">
         <v>4027</v>
       </c>
@@ -48601,7 +49115,7 @@
       <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
       <c r="AF155" s="7">
-        <f>IF(ISERROR(INDEX(E155:AD155,MATCH(TRUE,INDEX((E155:AD155&lt;&gt;0),0),0))),"",INDEX(E155:AD155,MATCH(TRUE,INDEX((E155:AD155&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>4027</v>
       </c>
       <c r="AG155" s="71">
@@ -48662,11 +49176,15 @@
         <v>153</v>
       </c>
       <c r="AX155" t="b">
-        <f>AW155=A155</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY155" s="73">
+        <f t="shared" si="12"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -48676,9 +49194,7 @@
       <c r="C156" t="s">
         <v>95</v>
       </c>
-      <c r="D156" s="6">
-        <v>41984</v>
-      </c>
+      <c r="D156" s="6"/>
       <c r="E156" s="6">
         <v>41984</v>
       </c>
@@ -48718,7 +49234,7 @@
       <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
       <c r="AF156" s="7">
-        <f>IF(ISERROR(INDEX(E156:AD156,MATCH(TRUE,INDEX((E156:AD156&lt;&gt;0),0),0))),"",INDEX(E156:AD156,MATCH(TRUE,INDEX((E156:AD156&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>41984</v>
       </c>
       <c r="AG156" s="71">
@@ -48779,11 +49295,15 @@
         <v>154</v>
       </c>
       <c r="AX156" t="b">
-        <f>AW156=A156</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY156" s="73">
+        <f t="shared" si="12"/>
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -48793,9 +49313,7 @@
       <c r="C157" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D157" s="6">
-        <v>44869</v>
-      </c>
+      <c r="D157" s="6"/>
       <c r="E157" s="6">
         <v>44869</v>
       </c>
@@ -48831,7 +49349,7 @@
       <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
       <c r="AF157" s="7">
-        <f>IF(ISERROR(INDEX(E157:AD157,MATCH(TRUE,INDEX((E157:AD157&lt;&gt;0),0),0))),"",INDEX(E157:AD157,MATCH(TRUE,INDEX((E157:AD157&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>44869</v>
       </c>
       <c r="AG157" s="71">
@@ -48892,11 +49410,15 @@
         <v>155</v>
       </c>
       <c r="AX157" t="b">
-        <f>AW157=A157</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY157" s="73">
+        <f t="shared" si="12"/>
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -48906,9 +49428,6 @@
       <c r="C158" t="s">
         <v>129</v>
       </c>
-      <c r="D158">
-        <v>5188</v>
-      </c>
       <c r="E158">
         <v>5188</v>
       </c>
@@ -48919,7 +49438,7 @@
         <v>7966</v>
       </c>
       <c r="AF158" s="7">
-        <f>IF(ISERROR(INDEX(E158:AD158,MATCH(TRUE,INDEX((E158:AD158&lt;&gt;0),0),0))),"",INDEX(E158:AD158,MATCH(TRUE,INDEX((E158:AD158&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>5188</v>
       </c>
       <c r="AG158" s="71">
@@ -48980,11 +49499,15 @@
         <v>156</v>
       </c>
       <c r="AX158" t="b">
-        <f>AW158=A158</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY158" s="73">
+        <f t="shared" si="12"/>
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -48994,9 +49517,6 @@
       <c r="C159" t="s">
         <v>69</v>
       </c>
-      <c r="D159">
-        <v>5755</v>
-      </c>
       <c r="E159">
         <v>5755</v>
       </c>
@@ -49007,7 +49527,7 @@
         <v>4938</v>
       </c>
       <c r="AF159" s="7">
-        <f>IF(ISERROR(INDEX(E159:AD159,MATCH(TRUE,INDEX((E159:AD159&lt;&gt;0),0),0))),"",INDEX(E159:AD159,MATCH(TRUE,INDEX((E159:AD159&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>5755</v>
       </c>
       <c r="AG159" s="71">
@@ -49068,11 +49588,15 @@
         <v>157</v>
       </c>
       <c r="AX159" t="b">
-        <f>AW159=A159</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY159" s="73">
+        <f t="shared" si="12"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="160" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -49082,9 +49606,6 @@
       <c r="C160" t="s">
         <v>83</v>
       </c>
-      <c r="D160">
-        <v>12490</v>
-      </c>
       <c r="E160">
         <v>12490</v>
       </c>
@@ -49095,7 +49616,7 @@
         <v>8841</v>
       </c>
       <c r="AF160" s="7">
-        <f>IF(ISERROR(INDEX(E160:AD160,MATCH(TRUE,INDEX((E160:AD160&lt;&gt;0),0),0))),"",INDEX(E160:AD160,MATCH(TRUE,INDEX((E160:AD160&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="10"/>
         <v>12490</v>
       </c>
       <c r="AG160" s="71">
@@ -49156,11 +49677,15 @@
         <v>158</v>
       </c>
       <c r="AX160" t="b">
-        <f>AW160=A160</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY160" s="73">
+        <f t="shared" si="12"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -49170,9 +49695,6 @@
       <c r="C161" t="s">
         <v>130</v>
       </c>
-      <c r="D161">
-        <v>13739</v>
-      </c>
       <c r="E161">
         <v>13739</v>
       </c>
@@ -49183,7 +49705,7 @@
         <v>4069</v>
       </c>
       <c r="AF161" s="7">
-        <f>IF(ISERROR(INDEX(E161:AD161,MATCH(TRUE,INDEX((E161:AD161&lt;&gt;0),0),0))),"",INDEX(E161:AD161,MATCH(TRUE,INDEX((E161:AD161&lt;&gt;0),0),0)))</f>
+        <f t="shared" ref="AF161:AF192" si="13">IF(ISERROR(INDEX(E161:AD161,MATCH(TRUE,INDEX((E161:AD161&lt;&gt;0),0),0))),"",INDEX(E161:AD161,MATCH(TRUE,INDEX((E161:AD161&lt;&gt;0),0),0)))</f>
         <v>13739</v>
       </c>
       <c r="AG161" s="71">
@@ -49244,11 +49766,15 @@
         <v>159</v>
       </c>
       <c r="AX161" t="b">
-        <f>AW161=A161</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AY161" s="73">
+        <f t="shared" si="12"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="162" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -49258,9 +49784,6 @@
       <c r="C162" t="s">
         <v>100</v>
       </c>
-      <c r="D162">
-        <v>11650</v>
-      </c>
       <c r="E162">
         <v>11650</v>
       </c>
@@ -49271,7 +49794,7 @@
         <v>11231</v>
       </c>
       <c r="AF162" s="7">
-        <f>IF(ISERROR(INDEX(E162:AD162,MATCH(TRUE,INDEX((E162:AD162&lt;&gt;0),0),0))),"",INDEX(E162:AD162,MATCH(TRUE,INDEX((E162:AD162&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v>11650</v>
       </c>
       <c r="AG162" s="71">
@@ -49332,11 +49855,15 @@
         <v>160</v>
       </c>
       <c r="AX162" t="b">
-        <f>AW162=A162</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AX162:AX165" si="14">AW162=A162</f>
+        <v>1</v>
+      </c>
+      <c r="AY162" s="73">
+        <f t="shared" si="12"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="163" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -49346,9 +49873,6 @@
       <c r="C163" t="s">
         <v>103</v>
       </c>
-      <c r="D163">
-        <v>4689</v>
-      </c>
       <c r="E163">
         <v>4689</v>
       </c>
@@ -49359,7 +49883,7 @@
         <v>4008</v>
       </c>
       <c r="AF163" s="7">
-        <f>IF(ISERROR(INDEX(E163:AD163,MATCH(TRUE,INDEX((E163:AD163&lt;&gt;0),0),0))),"",INDEX(E163:AD163,MATCH(TRUE,INDEX((E163:AD163&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v>4689</v>
       </c>
       <c r="AG163" s="71">
@@ -49420,11 +49944,15 @@
         <v>161</v>
       </c>
       <c r="AX163" t="b">
-        <f>AW163=A163</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AY163" s="73">
+        <f t="shared" si="12"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="164" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -49434,9 +49962,6 @@
       <c r="C164" t="s">
         <v>117</v>
       </c>
-      <c r="D164">
-        <v>5485</v>
-      </c>
       <c r="E164">
         <v>5485</v>
       </c>
@@ -49447,7 +49972,7 @@
         <v>1820</v>
       </c>
       <c r="AF164" s="7">
-        <f>IF(ISERROR(INDEX(E164:AD164,MATCH(TRUE,INDEX((E164:AD164&lt;&gt;0),0),0))),"",INDEX(E164:AD164,MATCH(TRUE,INDEX((E164:AD164&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v>5485</v>
       </c>
       <c r="AG164" s="71">
@@ -49508,11 +50033,15 @@
         <v>162</v>
       </c>
       <c r="AX164" t="b">
-        <f>AW164=A164</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AY164" s="73">
+        <f t="shared" si="12"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="165" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -49522,9 +50051,6 @@
       <c r="C165" t="s">
         <v>119</v>
       </c>
-      <c r="D165">
-        <v>5414</v>
-      </c>
       <c r="E165">
         <v>5414</v>
       </c>
@@ -49535,7 +50061,7 @@
         <v>4438</v>
       </c>
       <c r="AF165" s="7">
-        <f>IF(ISERROR(INDEX(E165:AD165,MATCH(TRUE,INDEX((E165:AD165&lt;&gt;0),0),0))),"",INDEX(E165:AD165,MATCH(TRUE,INDEX((E165:AD165&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v>5414</v>
       </c>
       <c r="AG165" s="71">
@@ -49596,13 +50122,17 @@
         <v>163</v>
       </c>
       <c r="AX165" t="b">
-        <f>AW165=A165</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AY165" s="73">
+        <f t="shared" si="12"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="166" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF166" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E166:AD166,MATCH(TRUE,INDEX((E166:AD166&lt;&gt;0),0),0))),"",INDEX(E166:AD166,MATCH(TRUE,INDEX((E166:AD166&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG166" s="71" t="str">
@@ -49639,9 +50169,9 @@
       </c>
       <c r="AO166" s="7"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF167" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E167:AD167,MATCH(TRUE,INDEX((E167:AD167&lt;&gt;0),0),0))),"",INDEX(E167:AD167,MATCH(TRUE,INDEX((E167:AD167&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG167" s="71" t="str">
@@ -49678,9 +50208,9 @@
       </c>
       <c r="AO167" s="7"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF168" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E168:AD168,MATCH(TRUE,INDEX((E168:AD168&lt;&gt;0),0),0))),"",INDEX(E168:AD168,MATCH(TRUE,INDEX((E168:AD168&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG168" s="71" t="str">
@@ -49717,9 +50247,9 @@
       </c>
       <c r="AO168" s="7"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF169" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E169:AD169,MATCH(TRUE,INDEX((E169:AD169&lt;&gt;0),0),0))),"",INDEX(E169:AD169,MATCH(TRUE,INDEX((E169:AD169&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG169" s="71" t="str">
@@ -49756,9 +50286,9 @@
       </c>
       <c r="AO169" s="7"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF170" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E170:AD170,MATCH(TRUE,INDEX((E170:AD170&lt;&gt;0),0),0))),"",INDEX(E170:AD170,MATCH(TRUE,INDEX((E170:AD170&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG170" s="71" t="str">
@@ -49795,9 +50325,9 @@
       </c>
       <c r="AO170" s="7"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF171" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E171:AD171,MATCH(TRUE,INDEX((E171:AD171&lt;&gt;0),0),0))),"",INDEX(E171:AD171,MATCH(TRUE,INDEX((E171:AD171&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG171" s="71" t="str">
@@ -49834,9 +50364,9 @@
       </c>
       <c r="AO171" s="7"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF172" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E172:AD172,MATCH(TRUE,INDEX((E172:AD172&lt;&gt;0),0),0))),"",INDEX(E172:AD172,MATCH(TRUE,INDEX((E172:AD172&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG172" s="71" t="str">
@@ -49873,9 +50403,9 @@
       </c>
       <c r="AO172" s="7"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF173" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E173:AD173,MATCH(TRUE,INDEX((E173:AD173&lt;&gt;0),0),0))),"",INDEX(E173:AD173,MATCH(TRUE,INDEX((E173:AD173&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG173" s="71" t="str">
@@ -49912,9 +50442,9 @@
       </c>
       <c r="AO173" s="7"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF174" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E174:AD174,MATCH(TRUE,INDEX((E174:AD174&lt;&gt;0),0),0))),"",INDEX(E174:AD174,MATCH(TRUE,INDEX((E174:AD174&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG174" s="71" t="str">
@@ -49951,9 +50481,9 @@
       </c>
       <c r="AO174" s="7"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF175" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E175:AD175,MATCH(TRUE,INDEX((E175:AD175&lt;&gt;0),0),0))),"",INDEX(E175:AD175,MATCH(TRUE,INDEX((E175:AD175&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG175" s="71" t="str">
@@ -49990,9 +50520,9 @@
       </c>
       <c r="AO175" s="7"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AF176" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E176:AD176,MATCH(TRUE,INDEX((E176:AD176&lt;&gt;0),0),0))),"",INDEX(E176:AD176,MATCH(TRUE,INDEX((E176:AD176&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG176" s="71" t="str">
@@ -50031,7 +50561,7 @@
     </row>
     <row r="177" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF177" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E177:AD177,MATCH(TRUE,INDEX((E177:AD177&lt;&gt;0),0),0))),"",INDEX(E177:AD177,MATCH(TRUE,INDEX((E177:AD177&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG177" s="71" t="str">
@@ -50070,7 +50600,7 @@
     </row>
     <row r="178" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF178" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E178:AD178,MATCH(TRUE,INDEX((E178:AD178&lt;&gt;0),0),0))),"",INDEX(E178:AD178,MATCH(TRUE,INDEX((E178:AD178&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG178" s="71" t="str">
@@ -50109,7 +50639,7 @@
     </row>
     <row r="179" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF179" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E179:AD179,MATCH(TRUE,INDEX((E179:AD179&lt;&gt;0),0),0))),"",INDEX(E179:AD179,MATCH(TRUE,INDEX((E179:AD179&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG179" s="71" t="str">
@@ -50148,7 +50678,7 @@
     </row>
     <row r="180" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF180" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E180:AD180,MATCH(TRUE,INDEX((E180:AD180&lt;&gt;0),0),0))),"",INDEX(E180:AD180,MATCH(TRUE,INDEX((E180:AD180&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG180" s="71" t="str">
@@ -50187,7 +50717,7 @@
     </row>
     <row r="181" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF181" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E181:AD181,MATCH(TRUE,INDEX((E181:AD181&lt;&gt;0),0),0))),"",INDEX(E181:AD181,MATCH(TRUE,INDEX((E181:AD181&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG181" s="71" t="str">
@@ -50226,7 +50756,7 @@
     </row>
     <row r="182" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF182" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E182:AD182,MATCH(TRUE,INDEX((E182:AD182&lt;&gt;0),0),0))),"",INDEX(E182:AD182,MATCH(TRUE,INDEX((E182:AD182&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG182" s="71" t="str">
@@ -50265,7 +50795,7 @@
     </row>
     <row r="183" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF183" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E183:AD183,MATCH(TRUE,INDEX((E183:AD183&lt;&gt;0),0),0))),"",INDEX(E183:AD183,MATCH(TRUE,INDEX((E183:AD183&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG183" s="71" t="str">
@@ -50304,7 +50834,7 @@
     </row>
     <row r="184" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF184" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E184:AD184,MATCH(TRUE,INDEX((E184:AD184&lt;&gt;0),0),0))),"",INDEX(E184:AD184,MATCH(TRUE,INDEX((E184:AD184&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG184" s="71" t="str">
@@ -50343,7 +50873,7 @@
     </row>
     <row r="185" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF185" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E185:AD185,MATCH(TRUE,INDEX((E185:AD185&lt;&gt;0),0),0))),"",INDEX(E185:AD185,MATCH(TRUE,INDEX((E185:AD185&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG185" s="71" t="str">
@@ -50382,7 +50912,7 @@
     </row>
     <row r="186" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF186" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E186:AD186,MATCH(TRUE,INDEX((E186:AD186&lt;&gt;0),0),0))),"",INDEX(E186:AD186,MATCH(TRUE,INDEX((E186:AD186&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG186" s="71" t="str">
@@ -50421,7 +50951,7 @@
     </row>
     <row r="187" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF187" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E187:AD187,MATCH(TRUE,INDEX((E187:AD187&lt;&gt;0),0),0))),"",INDEX(E187:AD187,MATCH(TRUE,INDEX((E187:AD187&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG187" s="71" t="str">
@@ -50460,7 +50990,7 @@
     </row>
     <row r="188" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF188" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E188:AD188,MATCH(TRUE,INDEX((E188:AD188&lt;&gt;0),0),0))),"",INDEX(E188:AD188,MATCH(TRUE,INDEX((E188:AD188&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG188" s="71" t="str">
@@ -50499,7 +51029,7 @@
     </row>
     <row r="189" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF189" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E189:AD189,MATCH(TRUE,INDEX((E189:AD189&lt;&gt;0),0),0))),"",INDEX(E189:AD189,MATCH(TRUE,INDEX((E189:AD189&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG189" s="71" t="str">
@@ -50538,7 +51068,7 @@
     </row>
     <row r="190" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF190" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E190:AD190,MATCH(TRUE,INDEX((E190:AD190&lt;&gt;0),0),0))),"",INDEX(E190:AD190,MATCH(TRUE,INDEX((E190:AD190&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG190" s="71" t="str">
@@ -50577,7 +51107,7 @@
     </row>
     <row r="191" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF191" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E191:AD191,MATCH(TRUE,INDEX((E191:AD191&lt;&gt;0),0),0))),"",INDEX(E191:AD191,MATCH(TRUE,INDEX((E191:AD191&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG191" s="71" t="str">
@@ -50616,7 +51146,7 @@
     </row>
     <row r="192" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF192" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E192:AD192,MATCH(TRUE,INDEX((E192:AD192&lt;&gt;0),0),0))),"",INDEX(E192:AD192,MATCH(TRUE,INDEX((E192:AD192&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG192" s="71" t="str">
@@ -50655,7 +51185,7 @@
     </row>
     <row r="193" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF193" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E193:AD193,MATCH(TRUE,INDEX((E193:AD193&lt;&gt;0),0),0))),"",INDEX(E193:AD193,MATCH(TRUE,INDEX((E193:AD193&lt;&gt;0),0),0)))</f>
+        <f t="shared" ref="AF193:AF200" si="15">IF(ISERROR(INDEX(E193:AD193,MATCH(TRUE,INDEX((E193:AD193&lt;&gt;0),0),0))),"",INDEX(E193:AD193,MATCH(TRUE,INDEX((E193:AD193&lt;&gt;0),0),0)))</f>
         <v/>
       </c>
       <c r="AG193" s="71" t="str">
@@ -50694,7 +51224,7 @@
     </row>
     <row r="194" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF194" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E194:AD194,MATCH(TRUE,INDEX((E194:AD194&lt;&gt;0),0),0))),"",INDEX(E194:AD194,MATCH(TRUE,INDEX((E194:AD194&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG194" s="71" t="str">
@@ -50733,7 +51263,7 @@
     </row>
     <row r="195" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF195" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E195:AD195,MATCH(TRUE,INDEX((E195:AD195&lt;&gt;0),0),0))),"",INDEX(E195:AD195,MATCH(TRUE,INDEX((E195:AD195&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG195" s="71" t="str">
@@ -50772,7 +51302,7 @@
     </row>
     <row r="196" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF196" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E196:AD196,MATCH(TRUE,INDEX((E196:AD196&lt;&gt;0),0),0))),"",INDEX(E196:AD196,MATCH(TRUE,INDEX((E196:AD196&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG196" s="71" t="str">
@@ -50811,7 +51341,7 @@
     </row>
     <row r="197" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF197" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E197:AD197,MATCH(TRUE,INDEX((E197:AD197&lt;&gt;0),0),0))),"",INDEX(E197:AD197,MATCH(TRUE,INDEX((E197:AD197&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG197" s="71" t="str">
@@ -50850,7 +51380,7 @@
     </row>
     <row r="198" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF198" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E198:AD198,MATCH(TRUE,INDEX((E198:AD198&lt;&gt;0),0),0))),"",INDEX(E198:AD198,MATCH(TRUE,INDEX((E198:AD198&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG198" s="71" t="str">
@@ -50889,7 +51419,7 @@
     </row>
     <row r="199" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF199" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E199:AD199,MATCH(TRUE,INDEX((E199:AD199&lt;&gt;0),0),0))),"",INDEX(E199:AD199,MATCH(TRUE,INDEX((E199:AD199&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG199" s="71" t="str">
@@ -50928,7 +51458,7 @@
     </row>
     <row r="200" spans="32:41" x14ac:dyDescent="0.3">
       <c r="AF200" s="7" t="str">
-        <f>IF(ISERROR(INDEX(E200:AD200,MATCH(TRUE,INDEX((E200:AD200&lt;&gt;0),0),0))),"",INDEX(E200:AD200,MATCH(TRUE,INDEX((E200:AD200&lt;&gt;0),0),0)))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG200" s="71" t="str">
